--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1259406.240911857</v>
+        <v>1257587.479352359</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4561584.94668328</v>
+        <v>4561584.946683281</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>6.05642108929943</v>
       </c>
       <c r="R8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>6.05642108929943</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,70 +1294,70 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="I10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.056421089299432</v>
-      </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="Y10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>301.9748715999007</v>
       </c>
       <c r="C11" t="n">
-        <v>284.5139217074276</v>
+        <v>284.5139217074277</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>301.1714000086819</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>326.1170756781315</v>
       </c>
       <c r="G11" t="n">
         <v>331.8279204293739</v>
@@ -1388,7 +1388,7 @@
         <v>230.9021637362736</v>
       </c>
       <c r="I11" t="n">
-        <v>25.0142271841837</v>
+        <v>25.01422718418372</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.3737355047104</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>130.4482591609531</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>170.3694150824821</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>266.9166544735451</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>288.9721306148891</v>
       </c>
       <c r="Y11" t="n">
-        <v>305.4789685924737</v>
+        <v>272.7311269710681</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>135.8904109003521</v>
       </c>
       <c r="H12" t="n">
-        <v>98.20149690836209</v>
+        <v>98.20149690836232</v>
       </c>
       <c r="I12" t="n">
         <v>39.3664391521176</v>
@@ -1503,7 +1503,7 @@
         <v>194.3076907318083</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8457829847341</v>
+        <v>225.8457829847339</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.07301011835739</v>
+        <v>99.07301011835742</v>
       </c>
       <c r="C13" t="n">
-        <v>86.48785103504792</v>
+        <v>86.48785103504795</v>
       </c>
       <c r="D13" t="n">
-        <v>67.85650295463245</v>
+        <v>67.85650295463248</v>
       </c>
       <c r="E13" t="n">
-        <v>65.67499258298926</v>
+        <v>65.67499258298929</v>
       </c>
       <c r="F13" t="n">
-        <v>64.66207795935134</v>
+        <v>64.66207795935136</v>
       </c>
       <c r="G13" t="n">
-        <v>86.01377381710124</v>
+        <v>86.01377381710128</v>
       </c>
       <c r="H13" t="n">
-        <v>70.63698155961873</v>
+        <v>70.63698155961876</v>
       </c>
       <c r="I13" t="n">
-        <v>38.0558415865117</v>
+        <v>38.05584158651172</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.75812428551592</v>
+        <v>41.75812428551637</v>
       </c>
       <c r="S13" t="n">
         <v>122.0271060561226</v>
@@ -1591,7 +1591,7 @@
         <v>205.7640282730111</v>
       </c>
       <c r="X13" t="n">
-        <v>144.9506853254572</v>
+        <v>144.9506853254573</v>
       </c>
       <c r="Y13" t="n">
         <v>137.8256832885149</v>
@@ -1607,22 +1607,22 @@
         <v>301.9748715999007</v>
       </c>
       <c r="C14" t="n">
-        <v>284.5139217074276</v>
+        <v>284.5139217074277</v>
       </c>
       <c r="D14" t="n">
         <v>273.924071557103</v>
       </c>
       <c r="E14" t="n">
-        <v>301.1714000086819</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>326.1170756781315</v>
       </c>
       <c r="G14" t="n">
-        <v>331.8279204293739</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>230.9021637362736</v>
+        <v>116.9398048605074</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.3737355047104</v>
+        <v>66.37373550471042</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.4482591609531</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>170.3694150824821</v>
       </c>
       <c r="V14" t="n">
-        <v>246.993288406555</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>190.4339114699131</v>
+        <v>268.4819986538331</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>288.9721306148891</v>
       </c>
       <c r="Y14" t="n">
         <v>305.4789685924737</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.07301011835739</v>
+        <v>99.07301011835742</v>
       </c>
       <c r="C16" t="n">
-        <v>86.48785103504792</v>
+        <v>86.4878510350475</v>
       </c>
       <c r="D16" t="n">
-        <v>67.85650295463245</v>
+        <v>67.85650295463248</v>
       </c>
       <c r="E16" t="n">
-        <v>65.67499258298926</v>
+        <v>65.67499258298929</v>
       </c>
       <c r="F16" t="n">
-        <v>64.66207795935134</v>
+        <v>64.66207795935136</v>
       </c>
       <c r="G16" t="n">
-        <v>86.01377381710125</v>
+        <v>86.01377381710127</v>
       </c>
       <c r="H16" t="n">
-        <v>70.63698155961873</v>
+        <v>70.63698155961876</v>
       </c>
       <c r="I16" t="n">
-        <v>38.05584158651169</v>
+        <v>38.05584158651172</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.75812428551635</v>
+        <v>41.75812428551637</v>
       </c>
       <c r="S16" t="n">
         <v>122.0271060561226</v>
@@ -1828,7 +1828,7 @@
         <v>205.7640282730111</v>
       </c>
       <c r="X16" t="n">
-        <v>144.9506853254572</v>
+        <v>144.9506853254573</v>
       </c>
       <c r="Y16" t="n">
         <v>137.8256832885149</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.62278503988001</v>
+        <v>263.6602915389854</v>
       </c>
       <c r="C17" t="n">
-        <v>246.1993416465125</v>
+        <v>24.25798627513765</v>
       </c>
       <c r="D17" t="n">
-        <v>235.6094914961879</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>262.8568199477667</v>
+        <v>262.8568199477666</v>
       </c>
       <c r="F17" t="n">
-        <v>287.8024956172164</v>
+        <v>287.8024956172163</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>293.5133403684586</v>
       </c>
       <c r="H17" t="n">
-        <v>192.5875836753585</v>
+        <v>192.5875836753584</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.05915544379523</v>
+        <v>28.05915544379513</v>
       </c>
       <c r="T17" t="n">
-        <v>92.13367910003791</v>
+        <v>92.13367910003781</v>
       </c>
       <c r="U17" t="n">
-        <v>132.0548350215669</v>
+        <v>132.0548350215668</v>
       </c>
       <c r="V17" t="n">
-        <v>208.6787083456398</v>
+        <v>208.6787083456397</v>
       </c>
       <c r="W17" t="n">
-        <v>230.167418592918</v>
+        <v>230.1674185929178</v>
       </c>
       <c r="X17" t="n">
-        <v>250.657550553974</v>
+        <v>250.6575505539739</v>
       </c>
       <c r="Y17" t="n">
-        <v>267.1643885315585</v>
+        <v>267.1643885315584</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.75843005744223</v>
+        <v>60.75843005744213</v>
       </c>
       <c r="C19" t="n">
-        <v>48.17327097413276</v>
+        <v>48.17327097413266</v>
       </c>
       <c r="D19" t="n">
-        <v>29.54192289371728</v>
+        <v>29.54192289371719</v>
       </c>
       <c r="E19" t="n">
-        <v>27.3604125220741</v>
+        <v>27.360412522074</v>
       </c>
       <c r="F19" t="n">
-        <v>26.34749789843617</v>
+        <v>26.34749789843607</v>
       </c>
       <c r="G19" t="n">
-        <v>47.69919375618608</v>
+        <v>47.69919375618598</v>
       </c>
       <c r="H19" t="n">
-        <v>32.32240149870357</v>
+        <v>32.32240149870347</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.443544224601176</v>
+        <v>3.443544224601077</v>
       </c>
       <c r="S19" t="n">
-        <v>83.71252599520739</v>
+        <v>83.7125259952073</v>
       </c>
       <c r="T19" t="n">
-        <v>103.6668513532821</v>
+        <v>103.666851353282</v>
       </c>
       <c r="U19" t="n">
-        <v>167.1790300241171</v>
+        <v>167.1790300241169</v>
       </c>
       <c r="V19" t="n">
-        <v>133.0640931993329</v>
+        <v>133.0640931993328</v>
       </c>
       <c r="W19" t="n">
-        <v>167.4494482120959</v>
+        <v>167.4494482120958</v>
       </c>
       <c r="X19" t="n">
-        <v>106.6361052645421</v>
+        <v>106.636105264542</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.51110322759972</v>
+        <v>99.51110322759962</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>263.6602915389855</v>
+        <v>263.6602915389854</v>
       </c>
       <c r="C20" t="n">
-        <v>246.1993416465125</v>
+        <v>51.50531472671624</v>
       </c>
       <c r="D20" t="n">
-        <v>235.6094914961879</v>
+        <v>235.6094914961878</v>
       </c>
       <c r="E20" t="n">
-        <v>262.8568199477667</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>287.8024956172163</v>
       </c>
       <c r="G20" t="n">
-        <v>293.5133403684587</v>
+        <v>293.5133403684586</v>
       </c>
       <c r="H20" t="n">
-        <v>22.8392324250105</v>
+        <v>192.5875836753584</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.05915544379523</v>
+        <v>28.05915544379513</v>
       </c>
       <c r="T20" t="n">
-        <v>92.1336791000379</v>
+        <v>92.1336791000378</v>
       </c>
       <c r="U20" t="n">
-        <v>132.0548350215669</v>
+        <v>132.0548350215668</v>
       </c>
       <c r="V20" t="n">
-        <v>208.6787083456398</v>
+        <v>208.6787083456397</v>
       </c>
       <c r="W20" t="n">
-        <v>230.167418592918</v>
+        <v>230.1674185929178</v>
       </c>
       <c r="X20" t="n">
-        <v>250.657550553974</v>
+        <v>250.6575505539739</v>
       </c>
       <c r="Y20" t="n">
-        <v>267.1643885315585</v>
+        <v>267.1643885315584</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.75843005744223</v>
+        <v>60.75843005744213</v>
       </c>
       <c r="C22" t="n">
-        <v>48.17327097413276</v>
+        <v>48.17327097413266</v>
       </c>
       <c r="D22" t="n">
-        <v>29.54192289371728</v>
+        <v>29.54192289371719</v>
       </c>
       <c r="E22" t="n">
-        <v>27.3604125220741</v>
+        <v>27.360412522074</v>
       </c>
       <c r="F22" t="n">
-        <v>26.34749789843617</v>
+        <v>26.34749789843607</v>
       </c>
       <c r="G22" t="n">
-        <v>47.69919375618608</v>
+        <v>47.69919375618598</v>
       </c>
       <c r="H22" t="n">
-        <v>32.32240149870357</v>
+        <v>32.32240149870347</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.443544224601176</v>
+        <v>3.443544224601077</v>
       </c>
       <c r="S22" t="n">
-        <v>83.71252599520739</v>
+        <v>83.7125259952073</v>
       </c>
       <c r="T22" t="n">
-        <v>103.6668513532821</v>
+        <v>103.666851353282</v>
       </c>
       <c r="U22" t="n">
-        <v>167.1790300241171</v>
+        <v>167.1790300241169</v>
       </c>
       <c r="V22" t="n">
-        <v>133.0640931993329</v>
+        <v>133.0640931993328</v>
       </c>
       <c r="W22" t="n">
-        <v>167.4494482120959</v>
+        <v>167.4494482120958</v>
       </c>
       <c r="X22" t="n">
-        <v>106.6361052645421</v>
+        <v>106.636105264542</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.51110322759972</v>
+        <v>99.51110322759962</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>263.6602915389855</v>
+        <v>263.6602915389854</v>
       </c>
       <c r="C23" t="n">
-        <v>246.1993416465125</v>
+        <v>246.1993416465124</v>
       </c>
       <c r="D23" t="n">
-        <v>235.6094914961879</v>
+        <v>235.6094914961878</v>
       </c>
       <c r="E23" t="n">
-        <v>262.8568199477667</v>
+        <v>262.8568199477666</v>
       </c>
       <c r="F23" t="n">
-        <v>287.8024956172164</v>
+        <v>287.8024956172163</v>
       </c>
       <c r="G23" t="n">
-        <v>293.5133403684587</v>
+        <v>293.5133403684586</v>
       </c>
       <c r="H23" t="n">
-        <v>192.5875836753585</v>
+        <v>192.5875836753584</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.05915544379523</v>
+        <v>28.05915544379513</v>
       </c>
       <c r="T23" t="n">
-        <v>92.1336791000379</v>
+        <v>92.1336791000378</v>
       </c>
       <c r="U23" t="n">
-        <v>132.0548350215669</v>
+        <v>132.0548350215668</v>
       </c>
       <c r="V23" t="n">
-        <v>208.6787083456398</v>
+        <v>208.6787083456397</v>
       </c>
       <c r="W23" t="n">
-        <v>230.167418592918</v>
+        <v>230.1674185929178</v>
       </c>
       <c r="X23" t="n">
-        <v>250.657550553974</v>
+        <v>250.6575505539739</v>
       </c>
       <c r="Y23" t="n">
-        <v>267.1643885315585</v>
+        <v>267.1643885315584</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.75843005744223</v>
+        <v>60.75843005744213</v>
       </c>
       <c r="C25" t="n">
-        <v>48.17327097413276</v>
+        <v>48.17327097413266</v>
       </c>
       <c r="D25" t="n">
-        <v>29.54192289371728</v>
+        <v>29.54192289371719</v>
       </c>
       <c r="E25" t="n">
-        <v>27.3604125220741</v>
+        <v>27.360412522074</v>
       </c>
       <c r="F25" t="n">
-        <v>26.34749789843617</v>
+        <v>26.34749789843607</v>
       </c>
       <c r="G25" t="n">
-        <v>47.69919375618608</v>
+        <v>47.69919375618598</v>
       </c>
       <c r="H25" t="n">
-        <v>32.32240149870357</v>
+        <v>32.32240149870347</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.443544224601176</v>
+        <v>3.443544224601077</v>
       </c>
       <c r="S25" t="n">
-        <v>83.71252599520739</v>
+        <v>83.7125259952073</v>
       </c>
       <c r="T25" t="n">
-        <v>103.6668513532821</v>
+        <v>103.666851353282</v>
       </c>
       <c r="U25" t="n">
-        <v>167.1790300241171</v>
+        <v>167.1790300241169</v>
       </c>
       <c r="V25" t="n">
-        <v>133.0640931993329</v>
+        <v>133.0640931993328</v>
       </c>
       <c r="W25" t="n">
-        <v>167.4494482120959</v>
+        <v>167.4494482120958</v>
       </c>
       <c r="X25" t="n">
-        <v>106.6361052645421</v>
+        <v>106.636105264542</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.51110322759972</v>
+        <v>99.51110322759962</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.7538421541963</v>
+        <v>303.7538421541962</v>
       </c>
       <c r="C26" t="n">
-        <v>286.2928922617233</v>
+        <v>286.2928922617232</v>
       </c>
       <c r="D26" t="n">
-        <v>275.7030421113987</v>
+        <v>275.7030421113986</v>
       </c>
       <c r="E26" t="n">
-        <v>302.9503705629775</v>
+        <v>302.9503705629774</v>
       </c>
       <c r="F26" t="n">
-        <v>327.8960462324272</v>
+        <v>327.8960462324271</v>
       </c>
       <c r="G26" t="n">
-        <v>333.6068909836695</v>
+        <v>333.6068909836694</v>
       </c>
       <c r="H26" t="n">
-        <v>232.6811342905693</v>
+        <v>232.6811342905692</v>
       </c>
       <c r="I26" t="n">
-        <v>26.79319773847935</v>
+        <v>26.79319773847925</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.15270605900605</v>
+        <v>68.15270605900595</v>
       </c>
       <c r="T26" t="n">
-        <v>132.2272297152487</v>
+        <v>132.2272297152486</v>
       </c>
       <c r="U26" t="n">
-        <v>172.1483856367777</v>
+        <v>172.1483856367776</v>
       </c>
       <c r="V26" t="n">
-        <v>248.7722589608506</v>
+        <v>248.7722589608505</v>
       </c>
       <c r="W26" t="n">
-        <v>270.2609692081288</v>
+        <v>270.2609692081286</v>
       </c>
       <c r="X26" t="n">
-        <v>290.7511011691848</v>
+        <v>290.7511011691847</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.2579391467693</v>
+        <v>307.2579391467692</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.851980672653</v>
+        <v>100.8519806726529</v>
       </c>
       <c r="C28" t="n">
-        <v>88.26682158934358</v>
+        <v>88.26682158934348</v>
       </c>
       <c r="D28" t="n">
-        <v>69.6354735089281</v>
+        <v>27.22339231807833</v>
       </c>
       <c r="E28" t="n">
-        <v>25.04188194643293</v>
+        <v>67.45396313728482</v>
       </c>
       <c r="F28" t="n">
-        <v>66.44104851364699</v>
+        <v>66.44104851364689</v>
       </c>
       <c r="G28" t="n">
-        <v>87.79274437139691</v>
+        <v>87.79274437139681</v>
       </c>
       <c r="H28" t="n">
-        <v>72.41595211391439</v>
+        <v>72.41595211391429</v>
       </c>
       <c r="I28" t="n">
-        <v>39.83481214080734</v>
+        <v>39.83481214080724</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.537094839812</v>
+        <v>43.5370948398119</v>
       </c>
       <c r="S28" t="n">
-        <v>123.8060766104182</v>
+        <v>123.8060766104181</v>
       </c>
       <c r="T28" t="n">
-        <v>143.7604019684929</v>
+        <v>143.7604019684928</v>
       </c>
       <c r="U28" t="n">
-        <v>207.2725806393278</v>
+        <v>207.2725806393277</v>
       </c>
       <c r="V28" t="n">
-        <v>173.1576438145437</v>
+        <v>173.1576438145436</v>
       </c>
       <c r="W28" t="n">
-        <v>207.5429988273067</v>
+        <v>207.5429988273066</v>
       </c>
       <c r="X28" t="n">
-        <v>146.7296558797529</v>
+        <v>146.7296558797528</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.6046538428105</v>
+        <v>139.6046538428104</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>303.7538421541963</v>
       </c>
       <c r="C29" t="n">
-        <v>286.2928922617233</v>
+        <v>286.2928922617232</v>
       </c>
       <c r="D29" t="n">
-        <v>275.7030421113987</v>
+        <v>275.7030421113986</v>
       </c>
       <c r="E29" t="n">
         <v>302.9503705629775</v>
       </c>
       <c r="F29" t="n">
-        <v>327.8960462324272</v>
+        <v>327.8960462324271</v>
       </c>
       <c r="G29" t="n">
         <v>333.6068909836695</v>
       </c>
       <c r="H29" t="n">
-        <v>232.6811342905693</v>
+        <v>232.6811342905692</v>
       </c>
       <c r="I29" t="n">
-        <v>26.79319773847935</v>
+        <v>26.79319773847926</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>68.15270605900605</v>
+        <v>68.15270605900598</v>
       </c>
       <c r="T29" t="n">
         <v>132.2272297152487</v>
@@ -2852,10 +2852,10 @@
         <v>248.7722589608506</v>
       </c>
       <c r="W29" t="n">
-        <v>270.2609692081288</v>
+        <v>270.2609692081287</v>
       </c>
       <c r="X29" t="n">
-        <v>290.7511011691848</v>
+        <v>290.7511011691847</v>
       </c>
       <c r="Y29" t="n">
         <v>307.2579391467693</v>
@@ -2889,7 +2889,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I30" t="n">
-        <v>39.3664391521176</v>
+        <v>39.36643915211759</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.937780393757109</v>
+        <v>9.937780393757095</v>
       </c>
       <c r="S30" t="n">
         <v>144.6923595985481</v>
@@ -2950,25 +2950,25 @@
         <v>100.851980672653</v>
       </c>
       <c r="C31" t="n">
-        <v>88.26682158934358</v>
+        <v>88.26682158934351</v>
       </c>
       <c r="D31" t="n">
-        <v>69.6354735089281</v>
+        <v>69.63547350892803</v>
       </c>
       <c r="E31" t="n">
-        <v>67.45396313728492</v>
+        <v>67.45396313728484</v>
       </c>
       <c r="F31" t="n">
-        <v>66.44104851364699</v>
+        <v>66.44104851364692</v>
       </c>
       <c r="G31" t="n">
-        <v>87.79274437139691</v>
+        <v>87.79274437139684</v>
       </c>
       <c r="H31" t="n">
-        <v>30.0038709230627</v>
+        <v>72.41595211391432</v>
       </c>
       <c r="I31" t="n">
-        <v>39.83481214080734</v>
+        <v>39.83481214080727</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.537094839812</v>
+        <v>43.5370948398119</v>
       </c>
       <c r="S31" t="n">
-        <v>123.8060766104182</v>
+        <v>123.8060766104181</v>
       </c>
       <c r="T31" t="n">
-        <v>143.7604019684929</v>
+        <v>143.7604019684928</v>
       </c>
       <c r="U31" t="n">
         <v>207.2725806393278</v>
@@ -3013,10 +3013,10 @@
         <v>207.5429988273067</v>
       </c>
       <c r="X31" t="n">
-        <v>146.7296558797529</v>
+        <v>146.7296558797528</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.6046538428105</v>
+        <v>97.19257265196057</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.37373550471037</v>
+        <v>66.3737355047104</v>
       </c>
       <c r="T32" t="n">
         <v>130.4482591609531</v>
@@ -3126,7 +3126,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I33" t="n">
-        <v>39.3664391521176</v>
+        <v>39.36643915211759</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.937780393757109</v>
+        <v>9.937780393757095</v>
       </c>
       <c r="S33" t="n">
         <v>144.6923595985481</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.07301011835737</v>
+        <v>99.07301011835739</v>
       </c>
       <c r="C34" t="n">
-        <v>86.48785103504791</v>
+        <v>86.48785103504792</v>
       </c>
       <c r="D34" t="n">
-        <v>67.85650295463243</v>
+        <v>67.85650295463245</v>
       </c>
       <c r="E34" t="n">
-        <v>65.67499258298925</v>
+        <v>65.67499258298926</v>
       </c>
       <c r="F34" t="n">
-        <v>64.66207795935132</v>
+        <v>64.66207795935134</v>
       </c>
       <c r="G34" t="n">
-        <v>86.01377381710124</v>
+        <v>86.01377381710125</v>
       </c>
       <c r="H34" t="n">
-        <v>70.63698155961872</v>
+        <v>70.63698155961873</v>
       </c>
       <c r="I34" t="n">
-        <v>38.05584158651168</v>
+        <v>38.05584158651169</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>230.9021637362736</v>
       </c>
       <c r="I35" t="n">
-        <v>25.0142271841837</v>
+        <v>25.01422718418368</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I36" t="n">
-        <v>39.3664391521176</v>
+        <v>39.36643915211759</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.937780393757109</v>
+        <v>9.937780393757095</v>
       </c>
       <c r="S36" t="n">
         <v>144.6923595985481</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75812428551635</v>
+        <v>41.75812428551632</v>
       </c>
       <c r="S37" t="n">
         <v>122.0271060561226</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>301.9748715999006</v>
+        <v>301.9748715999007</v>
       </c>
       <c r="C38" t="n">
         <v>284.5139217074276</v>
@@ -3509,19 +3509,19 @@
         <v>273.924071557103</v>
       </c>
       <c r="E38" t="n">
-        <v>301.1714000086818</v>
+        <v>301.1714000086819</v>
       </c>
       <c r="F38" t="n">
         <v>326.1170756781315</v>
       </c>
       <c r="G38" t="n">
-        <v>331.8279204293738</v>
+        <v>331.8279204293739</v>
       </c>
       <c r="H38" t="n">
         <v>230.9021637362736</v>
       </c>
       <c r="I38" t="n">
-        <v>25.01422718418365</v>
+        <v>25.0142271841837</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.37373550471035</v>
+        <v>66.37373550471041</v>
       </c>
       <c r="T38" t="n">
-        <v>130.448259160953</v>
+        <v>130.4482591609531</v>
       </c>
       <c r="U38" t="n">
-        <v>170.369415082482</v>
+        <v>170.3694150824821</v>
       </c>
       <c r="V38" t="n">
-        <v>246.9932884065549</v>
+        <v>246.993288406555</v>
       </c>
       <c r="W38" t="n">
-        <v>268.481998653833</v>
+        <v>268.4819986538331</v>
       </c>
       <c r="X38" t="n">
         <v>288.9721306148891</v>
       </c>
       <c r="Y38" t="n">
-        <v>305.4789685924736</v>
+        <v>305.4789685924737</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I39" t="n">
-        <v>39.3664391521176</v>
+        <v>39.36643915211759</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.937780393757109</v>
+        <v>9.937780393757095</v>
       </c>
       <c r="S39" t="n">
         <v>144.6923595985481</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.07301011835735</v>
+        <v>99.0730101183574</v>
       </c>
       <c r="C40" t="n">
-        <v>86.48785103504788</v>
+        <v>86.48785103504794</v>
       </c>
       <c r="D40" t="n">
-        <v>67.8565029546324</v>
+        <v>67.85650295463246</v>
       </c>
       <c r="E40" t="n">
-        <v>65.67499258298922</v>
+        <v>65.67499258298928</v>
       </c>
       <c r="F40" t="n">
-        <v>64.66207795935129</v>
+        <v>64.66207795935135</v>
       </c>
       <c r="G40" t="n">
-        <v>86.0137738171012</v>
+        <v>86.01377381710125</v>
       </c>
       <c r="H40" t="n">
-        <v>70.63698155961869</v>
+        <v>70.63698155961875</v>
       </c>
       <c r="I40" t="n">
-        <v>38.05584158651165</v>
+        <v>38.05584158651171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.7581242855163</v>
+        <v>41.75812428551634</v>
       </c>
       <c r="S40" t="n">
         <v>122.0271060561225</v>
       </c>
       <c r="T40" t="n">
-        <v>141.9814314141972</v>
+        <v>141.9814314141973</v>
       </c>
       <c r="U40" t="n">
-        <v>205.4936100850321</v>
+        <v>205.4936100850322</v>
       </c>
       <c r="V40" t="n">
-        <v>171.378673260248</v>
+        <v>171.3786732602481</v>
       </c>
       <c r="W40" t="n">
-        <v>205.764028273011</v>
+        <v>205.7640282730111</v>
       </c>
       <c r="X40" t="n">
         <v>144.9506853254572</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.8256832885148</v>
+        <v>137.8256832885149</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301.9748715999006</v>
+        <v>301.9748715999007</v>
       </c>
       <c r="C41" t="n">
-        <v>284.5139217074276</v>
+        <v>284.5139217074277</v>
       </c>
       <c r="D41" t="n">
         <v>273.924071557103</v>
       </c>
       <c r="E41" t="n">
-        <v>301.1714000086818</v>
+        <v>301.1714000086819</v>
       </c>
       <c r="F41" t="n">
         <v>326.1170756781315</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8279204293738</v>
+        <v>331.8279204293739</v>
       </c>
       <c r="H41" t="n">
         <v>230.9021637362736</v>
       </c>
       <c r="I41" t="n">
-        <v>25.01422718418364</v>
+        <v>25.01422718418371</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.37373550471034</v>
+        <v>66.37373550471041</v>
       </c>
       <c r="T41" t="n">
-        <v>130.448259160953</v>
+        <v>130.4482591609531</v>
       </c>
       <c r="U41" t="n">
-        <v>170.369415082482</v>
+        <v>170.3694150824821</v>
       </c>
       <c r="V41" t="n">
-        <v>246.9932884065549</v>
+        <v>246.993288406555</v>
       </c>
       <c r="W41" t="n">
-        <v>268.481998653833</v>
+        <v>268.4819986538331</v>
       </c>
       <c r="X41" t="n">
         <v>288.9721306148891</v>
       </c>
       <c r="Y41" t="n">
-        <v>305.4789685924736</v>
+        <v>305.4789685924737</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I42" t="n">
-        <v>39.3664391521176</v>
+        <v>39.36643915211759</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.937780393757109</v>
+        <v>9.937780393757095</v>
       </c>
       <c r="S42" t="n">
         <v>144.6923595985481</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.07301011835733</v>
+        <v>99.07301011835742</v>
       </c>
       <c r="C43" t="n">
-        <v>86.48785103504787</v>
+        <v>86.48785103504795</v>
       </c>
       <c r="D43" t="n">
-        <v>67.85650295463239</v>
+        <v>67.85650295463248</v>
       </c>
       <c r="E43" t="n">
-        <v>65.6749925829892</v>
+        <v>65.67499258298929</v>
       </c>
       <c r="F43" t="n">
-        <v>64.66207795935128</v>
+        <v>64.66207795935136</v>
       </c>
       <c r="G43" t="n">
-        <v>86.01377381710118</v>
+        <v>86.01377381710127</v>
       </c>
       <c r="H43" t="n">
-        <v>70.63698155961868</v>
+        <v>70.63698155961876</v>
       </c>
       <c r="I43" t="n">
-        <v>38.05584158651164</v>
+        <v>38.05584158651173</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75812428551628</v>
+        <v>41.75812428551635</v>
       </c>
       <c r="S43" t="n">
-        <v>122.0271060561225</v>
+        <v>122.0271060561226</v>
       </c>
       <c r="T43" t="n">
-        <v>141.9814314141972</v>
+        <v>141.9814314141973</v>
       </c>
       <c r="U43" t="n">
-        <v>205.4936100850321</v>
+        <v>205.4936100850322</v>
       </c>
       <c r="V43" t="n">
-        <v>171.378673260248</v>
+        <v>171.3786732602481</v>
       </c>
       <c r="W43" t="n">
-        <v>205.764028273011</v>
+        <v>205.7640282730111</v>
       </c>
       <c r="X43" t="n">
-        <v>144.9506853254572</v>
+        <v>144.9506853254573</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.8256832885148</v>
+        <v>137.8256832885149</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>301.9748715999006</v>
+        <v>301.9748715999007</v>
       </c>
       <c r="C44" t="n">
-        <v>284.5139217074276</v>
+        <v>284.5139217074277</v>
       </c>
       <c r="D44" t="n">
         <v>273.924071557103</v>
       </c>
       <c r="E44" t="n">
-        <v>301.1714000086818</v>
+        <v>301.1714000086819</v>
       </c>
       <c r="F44" t="n">
         <v>326.1170756781315</v>
       </c>
       <c r="G44" t="n">
-        <v>331.8279204293738</v>
+        <v>331.8279204293739</v>
       </c>
       <c r="H44" t="n">
         <v>230.9021637362736</v>
       </c>
       <c r="I44" t="n">
-        <v>25.01422718418352</v>
+        <v>25.01422718418371</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.37373550471034</v>
+        <v>66.37373550471041</v>
       </c>
       <c r="T44" t="n">
-        <v>130.448259160953</v>
+        <v>130.4482591609531</v>
       </c>
       <c r="U44" t="n">
-        <v>170.369415082482</v>
+        <v>170.3694150824821</v>
       </c>
       <c r="V44" t="n">
-        <v>246.9932884065549</v>
+        <v>246.993288406555</v>
       </c>
       <c r="W44" t="n">
-        <v>268.481998653833</v>
+        <v>268.4819986538331</v>
       </c>
       <c r="X44" t="n">
         <v>288.9721306148891</v>
       </c>
       <c r="Y44" t="n">
-        <v>305.4789685924736</v>
+        <v>305.4789685924737</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I45" t="n">
-        <v>39.36643915211761</v>
+        <v>39.36643915211759</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.937780393757123</v>
+        <v>9.937780393757095</v>
       </c>
       <c r="S45" t="n">
         <v>144.6923595985481</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.07301011835733</v>
+        <v>99.07301011835742</v>
       </c>
       <c r="C46" t="n">
-        <v>86.48785103504787</v>
+        <v>86.48785103504795</v>
       </c>
       <c r="D46" t="n">
-        <v>67.85650295463239</v>
+        <v>67.85650295463248</v>
       </c>
       <c r="E46" t="n">
-        <v>65.6749925829892</v>
+        <v>65.67499258298929</v>
       </c>
       <c r="F46" t="n">
-        <v>64.66207795935128</v>
+        <v>64.66207795935136</v>
       </c>
       <c r="G46" t="n">
-        <v>86.0137738171012</v>
+        <v>86.01377381710128</v>
       </c>
       <c r="H46" t="n">
-        <v>70.63698155961868</v>
+        <v>70.63698155961876</v>
       </c>
       <c r="I46" t="n">
-        <v>38.05584158651165</v>
+        <v>38.05584158651173</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75812428551629</v>
+        <v>41.75812428551635</v>
       </c>
       <c r="S46" t="n">
-        <v>122.0271060561225</v>
+        <v>122.0271060561226</v>
       </c>
       <c r="T46" t="n">
-        <v>141.9814314141972</v>
+        <v>141.9814314141973</v>
       </c>
       <c r="U46" t="n">
-        <v>205.4936100850321</v>
+        <v>205.4936100850322</v>
       </c>
       <c r="V46" t="n">
-        <v>171.378673260248</v>
+        <v>171.3786732602481</v>
       </c>
       <c r="W46" t="n">
-        <v>205.764028273011</v>
+        <v>205.7640282730111</v>
       </c>
       <c r="X46" t="n">
-        <v>144.9506853254572</v>
+        <v>144.9506853254573</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.8256832885148</v>
+        <v>137.8256832885149</v>
       </c>
     </row>
   </sheetData>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F8" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="C8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
@@ -4808,16 +4808,16 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N8" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
@@ -4826,28 +4826,28 @@
         <v>21.38658590694733</v>
       </c>
       <c r="R8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M9" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N9" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
         <v>20.69689768255142</v>
@@ -4914,19 +4914,19 @@
         <v>27.50418296684575</v>
       </c>
       <c r="U9" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V9" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W9" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D10" t="n">
         <v>13.6131814684388</v>
@@ -4954,10 +4954,10 @@
         <v>13.6131814684388</v>
       </c>
       <c r="H10" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
@@ -4981,31 +4981,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X10" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1237.510745686322</v>
+        <v>1566.921933239991</v>
       </c>
       <c r="C11" t="n">
-        <v>950.1229459818501</v>
+        <v>1279.534133535519</v>
       </c>
       <c r="D11" t="n">
-        <v>950.1229459818501</v>
+        <v>1279.534133535519</v>
       </c>
       <c r="E11" t="n">
-        <v>645.9094106195452</v>
+        <v>975.3205981732135</v>
       </c>
       <c r="F11" t="n">
-        <v>645.9094106195452</v>
+        <v>645.9094106195453</v>
       </c>
       <c r="G11" t="n">
         <v>310.7296930141171</v>
       </c>
       <c r="H11" t="n">
-        <v>77.49518418959831</v>
+        <v>77.49518418959833</v>
       </c>
       <c r="I11" t="n">
         <v>52.22828804395821</v>
@@ -5042,19 +5042,19 @@
         <v>268.5975715697584</v>
       </c>
       <c r="K11" t="n">
-        <v>392.7198854265368</v>
+        <v>713.6238438719899</v>
       </c>
       <c r="L11" t="n">
-        <v>997.0909556745329</v>
+        <v>904.5103117150402</v>
       </c>
       <c r="M11" t="n">
-        <v>1241.158368478779</v>
+        <v>1148.577724519286</v>
       </c>
       <c r="N11" t="n">
-        <v>1571.03224631856</v>
+        <v>1401.208211606162</v>
       </c>
       <c r="O11" t="n">
-        <v>2173.240969720162</v>
+        <v>1854.660248630395</v>
       </c>
       <c r="P11" t="n">
         <v>2330.957078554901</v>
@@ -5066,25 +5066,25 @@
         <v>2611.41440219791</v>
       </c>
       <c r="S11" t="n">
-        <v>2544.370224920425</v>
+        <v>2611.41440219791</v>
       </c>
       <c r="T11" t="n">
-        <v>2412.604306576028</v>
+        <v>2611.41440219791</v>
       </c>
       <c r="U11" t="n">
-        <v>2412.604306576028</v>
+        <v>2439.324083932777</v>
       </c>
       <c r="V11" t="n">
-        <v>2412.604306576028</v>
+        <v>2439.324083932777</v>
       </c>
       <c r="W11" t="n">
-        <v>2142.991524279518</v>
+        <v>2439.324083932777</v>
       </c>
       <c r="X11" t="n">
-        <v>1851.100483254377</v>
+        <v>2147.433042907636</v>
       </c>
       <c r="Y11" t="n">
-        <v>1542.535868514505</v>
+        <v>1871.947056068173</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957.6082924505956</v>
+        <v>957.608292450596</v>
       </c>
       <c r="C12" t="n">
-        <v>783.1552631694686</v>
+        <v>783.155263169469</v>
       </c>
       <c r="D12" t="n">
-        <v>634.2208535082174</v>
+        <v>634.2208535082177</v>
       </c>
       <c r="E12" t="n">
-        <v>474.9833985027619</v>
+        <v>474.9833985027622</v>
       </c>
       <c r="F12" t="n">
-        <v>328.4488405296469</v>
+        <v>328.4488405296471</v>
       </c>
       <c r="G12" t="n">
-        <v>191.1857992161599</v>
+        <v>191.1857992161601</v>
       </c>
       <c r="H12" t="n">
         <v>91.99236799559215</v>
@@ -5118,25 +5118,25 @@
         <v>52.22828804395821</v>
       </c>
       <c r="J12" t="n">
-        <v>62.57284636393287</v>
+        <v>187.4029713509376</v>
       </c>
       <c r="K12" t="n">
-        <v>158.4081689147015</v>
+        <v>545.0588785441591</v>
       </c>
       <c r="L12" t="n">
-        <v>700.7250699031632</v>
+        <v>1087.375779532621</v>
       </c>
       <c r="M12" t="n">
-        <v>1273.867062771322</v>
+        <v>1733.700844076604</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.988201135306</v>
+        <v>1977.821982440587</v>
       </c>
       <c r="O12" t="n">
-        <v>2109.015250688024</v>
+        <v>2178.925335909343</v>
       </c>
       <c r="P12" t="n">
-        <v>2566.363496141784</v>
+        <v>2358.386981283293</v>
       </c>
       <c r="Q12" t="n">
         <v>2611.41440219791</v>
@@ -5157,7 +5157,7 @@
         <v>1795.672785169352</v>
       </c>
       <c r="W12" t="n">
-        <v>1541.43542844115</v>
+        <v>1541.435428441151</v>
       </c>
       <c r="X12" t="n">
         <v>1333.583928235618</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.4586127866378</v>
+        <v>536.4586127866377</v>
       </c>
       <c r="C13" t="n">
-        <v>449.0971470946702</v>
+        <v>449.09714709467</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5552249182737</v>
+        <v>380.5552249182736</v>
       </c>
       <c r="E13" t="n">
-        <v>314.2168485718199</v>
+        <v>314.2168485718197</v>
       </c>
       <c r="F13" t="n">
-        <v>248.9016183098488</v>
+        <v>248.9016183098484</v>
       </c>
       <c r="G13" t="n">
-        <v>162.019018494595</v>
+        <v>162.0190184945946</v>
       </c>
       <c r="H13" t="n">
-        <v>90.6685320707377</v>
+        <v>90.66853207073773</v>
       </c>
       <c r="I13" t="n">
         <v>52.22828804395821</v>
       </c>
       <c r="J13" t="n">
-        <v>125.0220358874845</v>
+        <v>125.0220358874844</v>
       </c>
       <c r="K13" t="n">
-        <v>323.0480639967852</v>
+        <v>323.0480639967851</v>
       </c>
       <c r="L13" t="n">
-        <v>609.6207763996175</v>
+        <v>609.6207763996174</v>
       </c>
       <c r="M13" t="n">
-        <v>917.8145040446577</v>
+        <v>917.8145040446575</v>
       </c>
       <c r="N13" t="n">
         <v>1226.015755239913</v>
       </c>
       <c r="O13" t="n">
-        <v>1500.776539114133</v>
+        <v>1500.776539114132</v>
       </c>
       <c r="P13" t="n">
         <v>1723.900336316501</v>
@@ -5221,7 +5221,7 @@
         <v>1819.541796732554</v>
       </c>
       <c r="R13" t="n">
-        <v>1777.361873211831</v>
+        <v>1777.36187321183</v>
       </c>
       <c r="S13" t="n">
         <v>1654.102170124838</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1488.934830911493</v>
+        <v>1063.839271683524</v>
       </c>
       <c r="C14" t="n">
-        <v>1201.547031207021</v>
+        <v>776.4514719790518</v>
       </c>
       <c r="D14" t="n">
-        <v>924.8560498362096</v>
+        <v>499.76049060824</v>
       </c>
       <c r="E14" t="n">
-        <v>620.6425144739052</v>
+        <v>499.76049060824</v>
       </c>
       <c r="F14" t="n">
-        <v>620.6425144739052</v>
+        <v>170.3493030545717</v>
       </c>
       <c r="G14" t="n">
-        <v>285.462796868477</v>
+        <v>170.3493030545717</v>
       </c>
       <c r="H14" t="n">
         <v>52.22828804395821</v>
@@ -5276,25 +5276,25 @@
         <v>52.22828804395821</v>
       </c>
       <c r="J14" t="n">
-        <v>268.5975715697584</v>
+        <v>101.1919225494054</v>
       </c>
       <c r="K14" t="n">
-        <v>392.7198854265368</v>
+        <v>344.8719978359906</v>
       </c>
       <c r="L14" t="n">
-        <v>997.0909556745329</v>
+        <v>949.2430680839866</v>
       </c>
       <c r="M14" t="n">
-        <v>1241.158368478779</v>
+        <v>1193.310480888233</v>
       </c>
       <c r="N14" t="n">
-        <v>1493.788855565655</v>
+        <v>1839.635545432216</v>
       </c>
       <c r="O14" t="n">
-        <v>2095.997578967257</v>
+        <v>2064.8520893837</v>
       </c>
       <c r="P14" t="n">
-        <v>2330.957078554901</v>
+        <v>2541.148919308207</v>
       </c>
       <c r="Q14" t="n">
         <v>2611.41440219791</v>
@@ -5306,22 +5306,22 @@
         <v>2544.370224920425</v>
       </c>
       <c r="T14" t="n">
-        <v>2544.370224920425</v>
+        <v>2412.604306576028</v>
       </c>
       <c r="U14" t="n">
-        <v>2544.370224920425</v>
+        <v>2240.513988310895</v>
       </c>
       <c r="V14" t="n">
-        <v>2294.882054812794</v>
+        <v>2240.513988310895</v>
       </c>
       <c r="W14" t="n">
-        <v>2102.524568479548</v>
+        <v>1969.32005027672</v>
       </c>
       <c r="X14" t="n">
-        <v>2102.524568479548</v>
+        <v>1677.429009251579</v>
       </c>
       <c r="Y14" t="n">
-        <v>1793.959953739676</v>
+        <v>1368.864394511707</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>52.22828804395821</v>
       </c>
       <c r="J15" t="n">
-        <v>62.57284636393287</v>
+        <v>187.4029713509376</v>
       </c>
       <c r="K15" t="n">
-        <v>420.2287535571543</v>
+        <v>545.0588785441591</v>
       </c>
       <c r="L15" t="n">
-        <v>930.5399090848392</v>
+        <v>1087.375779532621</v>
       </c>
       <c r="M15" t="n">
-        <v>1576.864973628822</v>
+        <v>1311.165232078273</v>
       </c>
       <c r="N15" t="n">
-        <v>2223.190038172805</v>
+        <v>1555.286370442256</v>
       </c>
       <c r="O15" t="n">
-        <v>2424.293391641561</v>
+        <v>1901.038735829532</v>
       </c>
       <c r="P15" t="n">
-        <v>2566.363496141783</v>
+        <v>2358.386981283293</v>
       </c>
       <c r="Q15" t="n">
         <v>2611.41440219791</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>536.4586127866378</v>
+        <v>536.4586127866371</v>
       </c>
       <c r="C16" t="n">
-        <v>449.0971470946702</v>
+        <v>449.0971470946698</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5552249182737</v>
+        <v>380.5552249182734</v>
       </c>
       <c r="E16" t="n">
-        <v>314.2168485718199</v>
+        <v>314.2168485718195</v>
       </c>
       <c r="F16" t="n">
-        <v>248.9016183098488</v>
+        <v>248.9016183098485</v>
       </c>
       <c r="G16" t="n">
-        <v>162.019018494595</v>
+        <v>162.0190184945946</v>
       </c>
       <c r="H16" t="n">
-        <v>90.66853207073748</v>
+        <v>90.66853207073773</v>
       </c>
       <c r="I16" t="n">
         <v>52.22828804395821</v>
@@ -5437,13 +5437,13 @@
         <v>125.0220358874845</v>
       </c>
       <c r="K16" t="n">
-        <v>323.0480639967852</v>
+        <v>323.0480639967851</v>
       </c>
       <c r="L16" t="n">
-        <v>609.6207763996176</v>
+        <v>609.6207763996174</v>
       </c>
       <c r="M16" t="n">
-        <v>917.814504044658</v>
+        <v>917.8145040446577</v>
       </c>
       <c r="N16" t="n">
         <v>1226.015755239913</v>
@@ -5461,25 +5461,25 @@
         <v>1777.36187321183</v>
       </c>
       <c r="S16" t="n">
-        <v>1654.102170124838</v>
+        <v>1654.102170124837</v>
       </c>
       <c r="T16" t="n">
-        <v>1510.68658283777</v>
+        <v>1510.686582837769</v>
       </c>
       <c r="U16" t="n">
-        <v>1303.117279721576</v>
+        <v>1303.117279721575</v>
       </c>
       <c r="V16" t="n">
         <v>1130.007508751628</v>
       </c>
       <c r="W16" t="n">
-        <v>922.165055950607</v>
+        <v>922.1650559506065</v>
       </c>
       <c r="X16" t="n">
-        <v>775.7502222885289</v>
+        <v>775.7502222885284</v>
       </c>
       <c r="Y16" t="n">
-        <v>636.5323603809381</v>
+        <v>636.5323603809376</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1289.658320754101</v>
+        <v>1123.963869744905</v>
       </c>
       <c r="C17" t="n">
-        <v>1040.972117070755</v>
+        <v>1099.460853305372</v>
       </c>
       <c r="D17" t="n">
-        <v>802.9827317210705</v>
+        <v>1099.460853305372</v>
       </c>
       <c r="E17" t="n">
-        <v>537.470792379892</v>
+        <v>833.9489139641939</v>
       </c>
       <c r="F17" t="n">
-        <v>246.7612008473506</v>
+        <v>543.2393224316522</v>
       </c>
       <c r="G17" t="n">
-        <v>246.7612008473506</v>
+        <v>246.7612008473505</v>
       </c>
       <c r="H17" t="n">
         <v>52.22828804395821</v>
@@ -5516,25 +5516,25 @@
         <v>101.1919225494054</v>
       </c>
       <c r="K17" t="n">
-        <v>225.3142364061837</v>
+        <v>546.2181948516368</v>
       </c>
       <c r="L17" t="n">
-        <v>416.2007042492339</v>
+        <v>1150.589265099633</v>
       </c>
       <c r="M17" t="n">
-        <v>1062.525768793217</v>
+        <v>1394.656677903879</v>
       </c>
       <c r="N17" t="n">
-        <v>1571.03224631856</v>
+        <v>1647.287164990755</v>
       </c>
       <c r="O17" t="n">
-        <v>2173.240969720162</v>
+        <v>2249.495888392357</v>
       </c>
       <c r="P17" t="n">
-        <v>2330.957078554901</v>
+        <v>2407.211997227096</v>
       </c>
       <c r="Q17" t="n">
-        <v>2611.41440219791</v>
+        <v>2590.891496707627</v>
       </c>
       <c r="R17" t="n">
         <v>2611.41440219791</v>
@@ -5546,19 +5546,19 @@
         <v>2490.007498618281</v>
       </c>
       <c r="U17" t="n">
-        <v>2356.618776374274</v>
+        <v>2356.618776374275</v>
       </c>
       <c r="V17" t="n">
-        <v>2145.832202287769</v>
+        <v>2145.83220228777</v>
       </c>
       <c r="W17" t="n">
-        <v>1913.339860274721</v>
+        <v>1913.339860274722</v>
       </c>
       <c r="X17" t="n">
         <v>1660.150415270707</v>
       </c>
       <c r="Y17" t="n">
-        <v>1390.28739655196</v>
+        <v>1390.287396551961</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>52.22828804395821</v>
       </c>
       <c r="J18" t="n">
-        <v>62.57284636393287</v>
+        <v>187.4029713509376</v>
       </c>
       <c r="K18" t="n">
-        <v>158.4081689147015</v>
+        <v>545.0588785441591</v>
       </c>
       <c r="L18" t="n">
-        <v>700.7250699031632</v>
+        <v>1087.375779532621</v>
       </c>
       <c r="M18" t="n">
-        <v>1053.610317816794</v>
+        <v>1311.165232078273</v>
       </c>
       <c r="N18" t="n">
-        <v>1699.935382360777</v>
+        <v>1555.286370442256</v>
       </c>
       <c r="O18" t="n">
         <v>1901.038735829532</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.8087926330996</v>
+        <v>265.808792633099</v>
       </c>
       <c r="C19" t="n">
-        <v>217.1489229622584</v>
+        <v>217.1489229622579</v>
       </c>
       <c r="D19" t="n">
-        <v>187.3085968069884</v>
+        <v>187.308596806988</v>
       </c>
       <c r="E19" t="n">
-        <v>159.6718164816611</v>
+        <v>159.6718164816608</v>
       </c>
       <c r="F19" t="n">
-        <v>133.0581822408164</v>
+        <v>133.0581822408162</v>
       </c>
       <c r="G19" t="n">
-        <v>84.87717844668909</v>
+        <v>84.87717844668899</v>
       </c>
       <c r="H19" t="n">
         <v>52.22828804395821</v>
@@ -5674,49 +5674,49 @@
         <v>52.22828804395821</v>
       </c>
       <c r="K19" t="n">
-        <v>170.3029357903148</v>
+        <v>183.7921618307723</v>
       </c>
       <c r="L19" t="n">
-        <v>376.9242678302031</v>
+        <v>390.4134938706606</v>
       </c>
       <c r="M19" t="n">
-        <v>605.1666151122993</v>
+        <v>618.6558411527567</v>
       </c>
       <c r="N19" t="n">
-        <v>833.4164859446103</v>
+        <v>846.9057119850677</v>
       </c>
       <c r="O19" t="n">
-        <v>1028.225889455886</v>
+        <v>1041.715115496344</v>
       </c>
       <c r="P19" t="n">
-        <v>1171.39830629531</v>
+        <v>1184.887532335768</v>
       </c>
       <c r="Q19" t="n">
-        <v>1200.577612388878</v>
+        <v>1200.577612388877</v>
       </c>
       <c r="R19" t="n">
-        <v>1197.099284889281</v>
+        <v>1197.099284889279</v>
       </c>
       <c r="S19" t="n">
-        <v>1112.541177823415</v>
+        <v>1112.541177823414</v>
       </c>
       <c r="T19" t="n">
-        <v>1007.827186557473</v>
+        <v>1007.827186557472</v>
       </c>
       <c r="U19" t="n">
-        <v>838.9594794624056</v>
+        <v>838.9594794624045</v>
       </c>
       <c r="V19" t="n">
-        <v>704.5513045135845</v>
+        <v>704.5513045135834</v>
       </c>
       <c r="W19" t="n">
-        <v>535.4104477336896</v>
+        <v>535.4104477336887</v>
       </c>
       <c r="X19" t="n">
-        <v>427.697210092738</v>
+        <v>427.6972100927371</v>
       </c>
       <c r="Y19" t="n">
-        <v>327.1809442062736</v>
+        <v>327.1809442062728</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>1123.963869744905</v>
       </c>
       <c r="C20" t="n">
-        <v>875.2776660615588</v>
+        <v>1071.938299313879</v>
       </c>
       <c r="D20" t="n">
-        <v>637.288280711874</v>
+        <v>833.9489139641938</v>
       </c>
       <c r="E20" t="n">
-        <v>371.7763413706948</v>
+        <v>833.9489139641938</v>
       </c>
       <c r="F20" t="n">
-        <v>371.7763413706948</v>
+        <v>543.2393224316521</v>
       </c>
       <c r="G20" t="n">
-        <v>75.29821978639305</v>
+        <v>246.7612008473505</v>
       </c>
       <c r="H20" t="n">
         <v>52.22828804395821</v>
@@ -5753,22 +5753,22 @@
         <v>101.1919225494054</v>
       </c>
       <c r="K20" t="n">
-        <v>444.6978038898234</v>
+        <v>546.2181948516368</v>
       </c>
       <c r="L20" t="n">
-        <v>1049.068874137819</v>
+        <v>1150.589265099633</v>
       </c>
       <c r="M20" t="n">
-        <v>1695.393938681802</v>
+        <v>1394.656677903879</v>
       </c>
       <c r="N20" t="n">
-        <v>1948.024425768678</v>
+        <v>1647.287164990755</v>
       </c>
       <c r="O20" t="n">
-        <v>2173.240969720162</v>
+        <v>2249.495888392357</v>
       </c>
       <c r="P20" t="n">
-        <v>2330.957078554901</v>
+        <v>2541.148919308207</v>
       </c>
       <c r="Q20" t="n">
         <v>2611.41440219791</v>
@@ -5820,7 +5820,7 @@
         <v>328.4488405296468</v>
       </c>
       <c r="G21" t="n">
-        <v>191.1857992161604</v>
+        <v>191.1857992161601</v>
       </c>
       <c r="H21" t="n">
         <v>91.99236799559215</v>
@@ -5829,25 +5829,25 @@
         <v>52.22828804395821</v>
       </c>
       <c r="J21" t="n">
-        <v>187.4029713509376</v>
+        <v>62.57284636393287</v>
       </c>
       <c r="K21" t="n">
-        <v>545.0588785441591</v>
+        <v>158.4081689147015</v>
       </c>
       <c r="L21" t="n">
-        <v>720.2438376821964</v>
+        <v>333.5931280527387</v>
       </c>
       <c r="M21" t="n">
-        <v>1366.568902226179</v>
+        <v>979.9181925967216</v>
       </c>
       <c r="N21" t="n">
-        <v>2012.893966770162</v>
+        <v>1626.243257140704</v>
       </c>
       <c r="O21" t="n">
-        <v>2213.997320238918</v>
+        <v>2217.270306693422</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.386981283293</v>
+        <v>2566.363496141784</v>
       </c>
       <c r="Q21" t="n">
         <v>2611.41440219791</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.8087926330996</v>
+        <v>265.808792633099</v>
       </c>
       <c r="C22" t="n">
-        <v>217.1489229622584</v>
+        <v>217.1489229622579</v>
       </c>
       <c r="D22" t="n">
-        <v>187.3085968069884</v>
+        <v>187.308596806988</v>
       </c>
       <c r="E22" t="n">
-        <v>159.6718164816611</v>
+        <v>159.6718164816608</v>
       </c>
       <c r="F22" t="n">
-        <v>133.0581822408164</v>
+        <v>133.0581822408162</v>
       </c>
       <c r="G22" t="n">
-        <v>84.87717844668909</v>
+        <v>84.87717844668899</v>
       </c>
       <c r="H22" t="n">
         <v>52.22828804395821</v>
@@ -5911,49 +5911,49 @@
         <v>52.22828804395821</v>
       </c>
       <c r="K22" t="n">
-        <v>183.7921618307739</v>
+        <v>183.7921618307723</v>
       </c>
       <c r="L22" t="n">
-        <v>390.4134938706622</v>
+        <v>390.4134938706606</v>
       </c>
       <c r="M22" t="n">
-        <v>618.6558411527583</v>
+        <v>618.6558411527567</v>
       </c>
       <c r="N22" t="n">
-        <v>846.9057119850693</v>
+        <v>846.9057119850677</v>
       </c>
       <c r="O22" t="n">
-        <v>1041.715115496345</v>
+        <v>1041.715115496344</v>
       </c>
       <c r="P22" t="n">
-        <v>1184.887532335769</v>
+        <v>1184.887532335768</v>
       </c>
       <c r="Q22" t="n">
-        <v>1200.577612388878</v>
+        <v>1200.577612388877</v>
       </c>
       <c r="R22" t="n">
-        <v>1197.099284889281</v>
+        <v>1197.099284889279</v>
       </c>
       <c r="S22" t="n">
-        <v>1112.541177823415</v>
+        <v>1112.541177823414</v>
       </c>
       <c r="T22" t="n">
-        <v>1007.827186557473</v>
+        <v>1007.827186557472</v>
       </c>
       <c r="U22" t="n">
-        <v>838.9594794624056</v>
+        <v>838.9594794624045</v>
       </c>
       <c r="V22" t="n">
-        <v>704.5513045135845</v>
+        <v>704.5513045135834</v>
       </c>
       <c r="W22" t="n">
-        <v>535.4104477336896</v>
+        <v>535.4104477336887</v>
       </c>
       <c r="X22" t="n">
-        <v>427.697210092738</v>
+        <v>427.6972100927371</v>
       </c>
       <c r="Y22" t="n">
-        <v>327.1809442062736</v>
+        <v>327.1809442062728</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1595.568535656639</v>
+        <v>1595.568535656637</v>
       </c>
       <c r="C23" t="n">
-        <v>1346.882331973293</v>
+        <v>1346.882331973291</v>
       </c>
       <c r="D23" t="n">
-        <v>1108.892946623608</v>
+        <v>1108.892946623607</v>
       </c>
       <c r="E23" t="n">
-        <v>843.3810072824296</v>
+        <v>843.3810072824285</v>
       </c>
       <c r="F23" t="n">
-        <v>552.6714157498877</v>
+        <v>552.6714157498868</v>
       </c>
       <c r="G23" t="n">
-        <v>256.1932941655853</v>
+        <v>256.1932941655851</v>
       </c>
       <c r="H23" t="n">
-        <v>61.66038136219289</v>
+        <v>61.66038136219285</v>
       </c>
       <c r="I23" t="n">
-        <v>61.66038136219289</v>
+        <v>61.66038136219285</v>
       </c>
       <c r="J23" t="n">
-        <v>278.0296648879931</v>
+        <v>177.960948699175</v>
       </c>
       <c r="K23" t="n">
-        <v>402.1519787447714</v>
+        <v>622.9872210014065</v>
       </c>
       <c r="L23" t="n">
-        <v>992.5317338448056</v>
+        <v>1227.358291249403</v>
       </c>
       <c r="M23" t="n">
-        <v>1681.617544806956</v>
+        <v>1471.425704053649</v>
       </c>
       <c r="N23" t="n">
-        <v>1934.248031893831</v>
+        <v>1724.056191140524</v>
       </c>
       <c r="O23" t="n">
-        <v>2536.456755295434</v>
+        <v>2326.264914542126</v>
       </c>
       <c r="P23" t="n">
-        <v>3012.75358521994</v>
+        <v>2802.561744466633</v>
       </c>
       <c r="Q23" t="n">
-        <v>3083.019068109644</v>
+        <v>3083.019068109642</v>
       </c>
       <c r="R23" t="n">
-        <v>3083.019068109644</v>
+        <v>3083.019068109642</v>
       </c>
       <c r="S23" t="n">
-        <v>3054.676486853285</v>
+        <v>3054.676486853284</v>
       </c>
       <c r="T23" t="n">
-        <v>2961.612164530015</v>
+        <v>2961.612164530013</v>
       </c>
       <c r="U23" t="n">
-        <v>2828.223442286009</v>
+        <v>2828.223442286007</v>
       </c>
       <c r="V23" t="n">
-        <v>2617.436868199504</v>
+        <v>2617.436868199502</v>
       </c>
       <c r="W23" t="n">
-        <v>2384.944526186455</v>
+        <v>2384.944526186453</v>
       </c>
       <c r="X23" t="n">
-        <v>2131.755081182441</v>
+        <v>2131.755081182439</v>
       </c>
       <c r="Y23" t="n">
-        <v>1861.892062463695</v>
+        <v>1861.892062463693</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6051,10 @@
         <v>643.6529468264523</v>
       </c>
       <c r="E24" t="n">
-        <v>484.4154918209969</v>
+        <v>484.4154918209967</v>
       </c>
       <c r="F24" t="n">
-        <v>337.8809338478818</v>
+        <v>337.8809338478817</v>
       </c>
       <c r="G24" t="n">
         <v>200.6178925343948</v>
@@ -6063,25 +6063,25 @@
         <v>101.4244613138268</v>
       </c>
       <c r="I24" t="n">
-        <v>61.66038136219289</v>
+        <v>61.66038136219285</v>
       </c>
       <c r="J24" t="n">
-        <v>72.00493968216755</v>
+        <v>72.0049396821675</v>
       </c>
       <c r="K24" t="n">
-        <v>167.8402622329362</v>
+        <v>429.660846875389</v>
       </c>
       <c r="L24" t="n">
-        <v>710.1571632213979</v>
+        <v>971.9777478638507</v>
       </c>
       <c r="M24" t="n">
-        <v>933.9466157670495</v>
+        <v>1195.767200409502</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.616704731151</v>
+        <v>1439.888338773486</v>
       </c>
       <c r="O24" t="n">
-        <v>2225.748970101306</v>
+        <v>2030.915388326203</v>
       </c>
       <c r="P24" t="n">
         <v>2367.819074601528</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>275.2408859513343</v>
+        <v>275.2408859513336</v>
       </c>
       <c r="C25" t="n">
-        <v>226.5810162804931</v>
+        <v>226.5810162804925</v>
       </c>
       <c r="D25" t="n">
-        <v>196.7406901252231</v>
+        <v>196.7406901252227</v>
       </c>
       <c r="E25" t="n">
-        <v>169.1039097998957</v>
+        <v>169.1039097998954</v>
       </c>
       <c r="F25" t="n">
-        <v>142.4902755590511</v>
+        <v>142.4902755590509</v>
       </c>
       <c r="G25" t="n">
-        <v>94.30927176492376</v>
+        <v>94.30927176492364</v>
       </c>
       <c r="H25" t="n">
-        <v>61.66038136219289</v>
+        <v>61.66038136219285</v>
       </c>
       <c r="I25" t="n">
-        <v>61.66038136219289</v>
+        <v>61.91653245185238</v>
       </c>
       <c r="J25" t="n">
-        <v>61.66038136219289</v>
+        <v>61.91653245185238</v>
       </c>
       <c r="K25" t="n">
-        <v>179.7350291085495</v>
+        <v>193.2242551490069</v>
       </c>
       <c r="L25" t="n">
-        <v>386.3563611484378</v>
+        <v>399.8455871888952</v>
       </c>
       <c r="M25" t="n">
-        <v>614.5987084305339</v>
+        <v>628.0879344709913</v>
       </c>
       <c r="N25" t="n">
-        <v>856.3378053033039</v>
+        <v>856.3378053033023</v>
       </c>
       <c r="O25" t="n">
-        <v>1051.14720881458</v>
+        <v>1051.147208814578</v>
       </c>
       <c r="P25" t="n">
-        <v>1194.319625654004</v>
+        <v>1194.319625654002</v>
       </c>
       <c r="Q25" t="n">
-        <v>1210.009705707113</v>
+        <v>1210.009705707111</v>
       </c>
       <c r="R25" t="n">
-        <v>1206.531378207516</v>
+        <v>1206.531378207514</v>
       </c>
       <c r="S25" t="n">
-        <v>1121.97327114165</v>
+        <v>1121.973271141648</v>
       </c>
       <c r="T25" t="n">
-        <v>1017.259279875708</v>
+        <v>1017.259279875707</v>
       </c>
       <c r="U25" t="n">
-        <v>848.3915727806402</v>
+        <v>848.3915727806391</v>
       </c>
       <c r="V25" t="n">
-        <v>713.983397831819</v>
+        <v>713.983397831818</v>
       </c>
       <c r="W25" t="n">
-        <v>544.8425410519242</v>
+        <v>544.8425410519233</v>
       </c>
       <c r="X25" t="n">
-        <v>437.1293034109726</v>
+        <v>437.1293034109718</v>
       </c>
       <c r="Y25" t="n">
-        <v>336.6130375245083</v>
+        <v>336.6130375245075</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>335.8789997042832</v>
       </c>
       <c r="H26" t="n">
-        <v>100.8475509259306</v>
+        <v>100.8475509259305</v>
       </c>
       <c r="I26" t="n">
-        <v>73.78371482645656</v>
+        <v>73.78371482645652</v>
       </c>
       <c r="J26" t="n">
-        <v>290.1529983522568</v>
+        <v>283.1279480367079</v>
       </c>
       <c r="K26" t="n">
-        <v>540.8309761518452</v>
+        <v>728.1542203389394</v>
       </c>
       <c r="L26" t="n">
-        <v>1145.202046399841</v>
+        <v>1332.525290586935</v>
       </c>
       <c r="M26" t="n">
-        <v>1834.287857361991</v>
+        <v>2021.611101549086</v>
       </c>
       <c r="N26" t="n">
-        <v>2519.891799616732</v>
+        <v>2707.215043803826</v>
       </c>
       <c r="O26" t="n">
-        <v>3122.100523018334</v>
+        <v>2932.43158775531</v>
       </c>
       <c r="P26" t="n">
-        <v>3598.39735294284</v>
+        <v>3408.728417679817</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.662835832544</v>
+        <v>3689.185741322826</v>
       </c>
       <c r="R26" t="n">
-        <v>3689.185741322828</v>
+        <v>3689.185741322826</v>
       </c>
       <c r="S26" t="n">
-        <v>3620.344624091508</v>
+        <v>3620.344624091507</v>
       </c>
       <c r="T26" t="n">
-        <v>3486.781765793277</v>
+        <v>3486.781765793276</v>
       </c>
       <c r="U26" t="n">
-        <v>3312.89450757431</v>
+        <v>3312.894507574309</v>
       </c>
       <c r="V26" t="n">
-        <v>3061.609397512844</v>
+        <v>3061.609397512843</v>
       </c>
       <c r="W26" t="n">
-        <v>2788.618519524835</v>
+        <v>2788.618519524834</v>
       </c>
       <c r="X26" t="n">
-        <v>2494.930538545861</v>
+        <v>2494.93053854586</v>
       </c>
       <c r="Y26" t="n">
         <v>2184.568983852154</v>
@@ -6300,28 +6300,28 @@
         <v>113.5477947780905</v>
       </c>
       <c r="I27" t="n">
-        <v>73.78371482645656</v>
+        <v>73.78371482645652</v>
       </c>
       <c r="J27" t="n">
-        <v>208.958398133436</v>
+        <v>180.2939325602823</v>
       </c>
       <c r="K27" t="n">
-        <v>566.6143053266575</v>
+        <v>276.129255111051</v>
       </c>
       <c r="L27" t="n">
-        <v>1108.931206315119</v>
+        <v>451.3142142490882</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.720658860771</v>
+        <v>1136.15167990724</v>
       </c>
       <c r="N27" t="n">
-        <v>2036.768950096813</v>
+        <v>1854.821768871341</v>
       </c>
       <c r="O27" t="n">
-        <v>2237.872303565568</v>
+        <v>2445.848818424059</v>
       </c>
       <c r="P27" t="n">
-        <v>2379.942408065791</v>
+        <v>2587.918922924282</v>
       </c>
       <c r="Q27" t="n">
         <v>2632.969828980408</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.7521331946083</v>
+        <v>527.7521331946099</v>
       </c>
       <c r="C28" t="n">
-        <v>438.5937275488067</v>
+        <v>438.5937275488084</v>
       </c>
       <c r="D28" t="n">
-        <v>368.2548654185763</v>
+        <v>411.0953514699414</v>
       </c>
       <c r="E28" t="n">
-        <v>342.9600351696541</v>
+        <v>342.9600351696537</v>
       </c>
       <c r="F28" t="n">
-        <v>275.8478649538491</v>
+        <v>275.8478649538488</v>
       </c>
       <c r="G28" t="n">
-        <v>187.1683251847613</v>
+        <v>187.1683251847611</v>
       </c>
       <c r="H28" t="n">
-        <v>114.02089880707</v>
+        <v>114.0208988070699</v>
       </c>
       <c r="I28" t="n">
-        <v>73.78371482645656</v>
+        <v>73.78371482645652</v>
       </c>
       <c r="J28" t="n">
         <v>144.8162818212301</v>
       </c>
       <c r="K28" t="n">
-        <v>341.0811290817782</v>
+        <v>341.0811290817783</v>
       </c>
       <c r="L28" t="n">
-        <v>625.8926606358579</v>
+        <v>625.8926606358581</v>
       </c>
       <c r="M28" t="n">
-        <v>932.3252074321454</v>
+        <v>932.3252074321457</v>
       </c>
       <c r="N28" t="n">
         <v>1238.765277778648</v>
@@ -6406,28 +6406,28 @@
         <v>1827.007776725031</v>
       </c>
       <c r="R28" t="n">
-        <v>1783.030913250473</v>
+        <v>1783.030913250474</v>
       </c>
       <c r="S28" t="n">
-        <v>1657.974270209647</v>
+        <v>1657.974270209648</v>
       </c>
       <c r="T28" t="n">
-        <v>1512.761742968745</v>
+        <v>1512.761742968746</v>
       </c>
       <c r="U28" t="n">
-        <v>1303.395499898717</v>
+        <v>1303.395499898718</v>
       </c>
       <c r="V28" t="n">
-        <v>1128.488788974935</v>
+        <v>1128.488788974936</v>
       </c>
       <c r="W28" t="n">
-        <v>918.8493962200798</v>
+        <v>918.8493962200812</v>
       </c>
       <c r="X28" t="n">
-        <v>770.6376226041677</v>
+        <v>770.6376226041693</v>
       </c>
       <c r="Y28" t="n">
-        <v>629.6228207427426</v>
+        <v>629.6228207427441</v>
       </c>
     </row>
     <row r="29">
@@ -6440,43 +6440,43 @@
         <v>1877.746921070138</v>
       </c>
       <c r="C29" t="n">
-        <v>1588.562181411831</v>
+        <v>1588.562181411832</v>
       </c>
       <c r="D29" t="n">
-        <v>1310.074260087186</v>
+        <v>1310.074260087187</v>
       </c>
       <c r="E29" t="n">
-        <v>1004.063784771047</v>
+        <v>1004.063784771048</v>
       </c>
       <c r="F29" t="n">
-        <v>672.8556572635453</v>
+        <v>672.8556572635457</v>
       </c>
       <c r="G29" t="n">
-        <v>335.8789997042832</v>
+        <v>335.8789997042836</v>
       </c>
       <c r="H29" t="n">
-        <v>100.8475509259306</v>
+        <v>100.8475509259305</v>
       </c>
       <c r="I29" t="n">
         <v>73.78371482645653</v>
       </c>
       <c r="J29" t="n">
-        <v>122.7473493319037</v>
+        <v>290.1529983522568</v>
       </c>
       <c r="K29" t="n">
-        <v>567.7736216341351</v>
+        <v>735.1792706544883</v>
       </c>
       <c r="L29" t="n">
-        <v>1172.144691882131</v>
+        <v>1339.550340902485</v>
       </c>
       <c r="M29" t="n">
-        <v>1861.230502844281</v>
+        <v>2028.636151864635</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.834445099021</v>
+        <v>2714.240094119375</v>
       </c>
       <c r="O29" t="n">
-        <v>3149.043168500623</v>
+        <v>3316.448817520977</v>
       </c>
       <c r="P29" t="n">
         <v>3618.920258433123</v>
@@ -6488,7 +6488,7 @@
         <v>3689.185741322827</v>
       </c>
       <c r="S29" t="n">
-        <v>3620.344624091507</v>
+        <v>3620.344624091508</v>
       </c>
       <c r="T29" t="n">
         <v>3486.781765793276</v>
@@ -6506,7 +6506,7 @@
         <v>2494.930538545861</v>
       </c>
       <c r="Y29" t="n">
-        <v>2184.568983852154</v>
+        <v>2184.568983852155</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>73.78371482645653</v>
       </c>
       <c r="J30" t="n">
-        <v>84.12827314643118</v>
+        <v>208.958398133436</v>
       </c>
       <c r="K30" t="n">
-        <v>441.7841803396527</v>
+        <v>566.6143053266575</v>
       </c>
       <c r="L30" t="n">
-        <v>633.2613954745601</v>
+        <v>863.6565221496777</v>
       </c>
       <c r="M30" t="n">
-        <v>1318.098861132712</v>
+        <v>1087.445974695329</v>
       </c>
       <c r="N30" t="n">
-        <v>2036.768950096813</v>
+        <v>1331.567113059313</v>
       </c>
       <c r="O30" t="n">
-        <v>2237.872303565568</v>
+        <v>1922.594162612031</v>
       </c>
       <c r="P30" t="n">
         <v>2379.942408065791</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.7521331946085</v>
+        <v>570.5926192459735</v>
       </c>
       <c r="C31" t="n">
-        <v>438.5937275488069</v>
+        <v>481.434213600172</v>
       </c>
       <c r="D31" t="n">
-        <v>368.2548654185765</v>
+        <v>411.0953514699416</v>
       </c>
       <c r="E31" t="n">
-        <v>300.1195491182887</v>
+        <v>342.9600351696539</v>
       </c>
       <c r="F31" t="n">
-        <v>233.0073789024837</v>
+        <v>275.8478649538489</v>
       </c>
       <c r="G31" t="n">
-        <v>144.3278391333959</v>
+        <v>187.1683251847612</v>
       </c>
       <c r="H31" t="n">
-        <v>114.02089880707</v>
+        <v>114.0208988070699</v>
       </c>
       <c r="I31" t="n">
         <v>73.78371482645653</v>
       </c>
       <c r="J31" t="n">
-        <v>144.8162818212304</v>
+        <v>144.8162818212302</v>
       </c>
       <c r="K31" t="n">
-        <v>341.0811290817784</v>
+        <v>341.0811290817783</v>
       </c>
       <c r="L31" t="n">
-        <v>625.8926606358582</v>
+        <v>625.8926606358581</v>
       </c>
       <c r="M31" t="n">
-        <v>932.3252074321455</v>
+        <v>932.3252074321456</v>
       </c>
       <c r="N31" t="n">
         <v>1238.765277778648</v>
@@ -6643,28 +6643,28 @@
         <v>1827.007776725031</v>
       </c>
       <c r="R31" t="n">
-        <v>1783.030913250473</v>
+        <v>1783.030913250474</v>
       </c>
       <c r="S31" t="n">
-        <v>1657.974270209647</v>
+        <v>1657.974270209648</v>
       </c>
       <c r="T31" t="n">
-        <v>1512.761742968745</v>
+        <v>1512.761742968746</v>
       </c>
       <c r="U31" t="n">
         <v>1303.395499898717</v>
       </c>
       <c r="V31" t="n">
-        <v>1128.488788974935</v>
+        <v>1128.488788974936</v>
       </c>
       <c r="W31" t="n">
-        <v>918.8493962200799</v>
+        <v>918.8493962200807</v>
       </c>
       <c r="X31" t="n">
-        <v>770.637622604168</v>
+        <v>770.6376226041688</v>
       </c>
       <c r="Y31" t="n">
-        <v>629.6228207427429</v>
+        <v>672.4633067941079</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1300.53947665868</v>
       </c>
       <c r="E32" t="n">
-        <v>996.3259412963749</v>
+        <v>996.3259412963746</v>
       </c>
       <c r="F32" t="n">
-        <v>666.9147537427066</v>
+        <v>666.9147537427064</v>
       </c>
       <c r="G32" t="n">
-        <v>331.7350361372785</v>
+        <v>331.7350361372783</v>
       </c>
       <c r="H32" t="n">
         <v>98.50052731275971</v>
@@ -6701,34 +6701,34 @@
         <v>289.6029146929199</v>
       </c>
       <c r="K32" t="n">
-        <v>734.6291869951513</v>
+        <v>734.6291869951514</v>
       </c>
       <c r="L32" t="n">
-        <v>1117.697863432995</v>
+        <v>1339.000257243148</v>
       </c>
       <c r="M32" t="n">
-        <v>1806.783674395145</v>
+        <v>2028.086068205298</v>
       </c>
       <c r="N32" t="n">
-        <v>2492.387616649885</v>
+        <v>2713.690010460038</v>
       </c>
       <c r="O32" t="n">
-        <v>3094.596340051487</v>
+        <v>3315.89873386164</v>
       </c>
       <c r="P32" t="n">
-        <v>3570.893169975994</v>
+        <v>3473.614842696379</v>
       </c>
       <c r="Q32" t="n">
-        <v>3641.158652865698</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="R32" t="n">
         <v>3661.681558355981</v>
       </c>
       <c r="S32" t="n">
-        <v>3594.637381078495</v>
+        <v>3594.637381078496</v>
       </c>
       <c r="T32" t="n">
-        <v>3462.871462734098</v>
+        <v>3462.871462734099</v>
       </c>
       <c r="U32" t="n">
         <v>3290.781144468965</v>
@@ -6743,7 +6743,7 @@
         <v>2478.207995302018</v>
       </c>
       <c r="Y32" t="n">
-        <v>2169.643380562146</v>
+        <v>2169.643380562145</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>73.23363116711963</v>
       </c>
       <c r="J33" t="n">
-        <v>208.408314474099</v>
+        <v>208.4083144740991</v>
       </c>
       <c r="K33" t="n">
-        <v>457.5263526771864</v>
+        <v>542.151607193342</v>
       </c>
       <c r="L33" t="n">
-        <v>632.7113118152237</v>
+        <v>717.3365663313792</v>
       </c>
       <c r="M33" t="n">
-        <v>1317.548777473375</v>
+        <v>1402.174031989531</v>
       </c>
       <c r="N33" t="n">
-        <v>2036.218866437476</v>
+        <v>1646.295170353514</v>
       </c>
       <c r="O33" t="n">
         <v>2237.322219906232</v>
@@ -6844,10 +6844,10 @@
         <v>335.2221916949812</v>
       </c>
       <c r="F34" t="n">
-        <v>269.9069614330102</v>
+        <v>269.9069614330101</v>
       </c>
       <c r="G34" t="n">
-        <v>183.0243616177564</v>
+        <v>183.0243616177563</v>
       </c>
       <c r="H34" t="n">
         <v>111.6738751938991</v>
@@ -6883,22 +6883,22 @@
         <v>1798.367216334992</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.107513247999</v>
+        <v>1675.107513248</v>
       </c>
       <c r="T34" t="n">
-        <v>1531.691925960931</v>
+        <v>1531.691925960932</v>
       </c>
       <c r="U34" t="n">
         <v>1324.122622844737</v>
       </c>
       <c r="V34" t="n">
-        <v>1151.012851874789</v>
+        <v>1151.01285187479</v>
       </c>
       <c r="W34" t="n">
-        <v>943.170399073768</v>
+        <v>943.1703990737683</v>
       </c>
       <c r="X34" t="n">
-        <v>796.75556541169</v>
+        <v>796.7555654116901</v>
       </c>
       <c r="Y34" t="n">
         <v>657.5377035040993</v>
@@ -6917,43 +6917,43 @@
         <v>1577.230458029491</v>
       </c>
       <c r="D35" t="n">
-        <v>1300.539476658679</v>
+        <v>1300.53947665868</v>
       </c>
       <c r="E35" t="n">
-        <v>996.3259412963745</v>
+        <v>996.3259412963746</v>
       </c>
       <c r="F35" t="n">
-        <v>666.9147537427062</v>
+        <v>666.9147537427064</v>
       </c>
       <c r="G35" t="n">
-        <v>331.7350361372785</v>
+        <v>331.7350361372783</v>
       </c>
       <c r="H35" t="n">
-        <v>98.50052731275973</v>
+        <v>98.5005273127597</v>
       </c>
       <c r="I35" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J35" t="n">
         <v>289.6029146929199</v>
       </c>
       <c r="K35" t="n">
-        <v>734.6291869951513</v>
+        <v>734.6291869951514</v>
       </c>
       <c r="L35" t="n">
-        <v>928.0289281699727</v>
+        <v>1339.000257243148</v>
       </c>
       <c r="M35" t="n">
-        <v>1617.114739132123</v>
+        <v>1617.114739132122</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.718681386863</v>
+        <v>2302.718681386862</v>
       </c>
       <c r="O35" t="n">
         <v>2904.927404788465</v>
       </c>
       <c r="P35" t="n">
-        <v>3381.224234712972</v>
+        <v>3381.224234712971</v>
       </c>
       <c r="Q35" t="n">
         <v>3661.681558355981</v>
@@ -6962,10 +6962,10 @@
         <v>3661.681558355981</v>
       </c>
       <c r="S35" t="n">
-        <v>3594.637381078496</v>
+        <v>3594.637381078495</v>
       </c>
       <c r="T35" t="n">
-        <v>3462.871462734099</v>
+        <v>3462.871462734098</v>
       </c>
       <c r="U35" t="n">
         <v>3290.781144468965</v>
@@ -7005,31 +7005,31 @@
         <v>349.4541836528085</v>
       </c>
       <c r="G36" t="n">
-        <v>212.1911423393216</v>
+        <v>212.1911423393215</v>
       </c>
       <c r="H36" t="n">
-        <v>112.9977111187536</v>
+        <v>112.9977111187535</v>
       </c>
       <c r="I36" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J36" t="n">
         <v>208.408314474099</v>
       </c>
       <c r="K36" t="n">
-        <v>304.2436370248677</v>
+        <v>566.0642216673206</v>
       </c>
       <c r="L36" t="n">
-        <v>479.4285961629049</v>
+        <v>1108.381122655782</v>
       </c>
       <c r="M36" t="n">
-        <v>703.2180487085565</v>
+        <v>1332.170575201434</v>
       </c>
       <c r="N36" t="n">
-        <v>1421.888137672658</v>
+        <v>1576.291713565417</v>
       </c>
       <c r="O36" t="n">
-        <v>2012.915187225376</v>
+        <v>1922.044078952694</v>
       </c>
       <c r="P36" t="n">
         <v>2379.392324406454</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>557.4639559097985</v>
+        <v>557.4639559097992</v>
       </c>
       <c r="C37" t="n">
-        <v>470.1024902178309</v>
+        <v>470.1024902178316</v>
       </c>
       <c r="D37" t="n">
-        <v>401.5605680414345</v>
+        <v>401.5605680414352</v>
       </c>
       <c r="E37" t="n">
-        <v>335.2221916949807</v>
+        <v>335.2221916949814</v>
       </c>
       <c r="F37" t="n">
-        <v>269.9069614330097</v>
+        <v>269.9069614330103</v>
       </c>
       <c r="G37" t="n">
-        <v>183.0243616177559</v>
+        <v>183.0243616177565</v>
       </c>
       <c r="H37" t="n">
         <v>111.6738751938991</v>
       </c>
       <c r="I37" t="n">
-        <v>73.23363116711963</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J37" t="n">
-        <v>146.0273790106459</v>
+        <v>146.0273790106458</v>
       </c>
       <c r="K37" t="n">
-        <v>344.0534071199467</v>
+        <v>344.0534071199465</v>
       </c>
       <c r="L37" t="n">
         <v>630.6261195227789</v>
@@ -7114,31 +7114,31 @@
         <v>1744.905679439663</v>
       </c>
       <c r="Q37" t="n">
-        <v>1840.547139855715</v>
+        <v>1840.547139855716</v>
       </c>
       <c r="R37" t="n">
         <v>1798.367216334992</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.107513247999</v>
+        <v>1675.107513248</v>
       </c>
       <c r="T37" t="n">
-        <v>1531.691925960931</v>
+        <v>1531.691925960932</v>
       </c>
       <c r="U37" t="n">
         <v>1324.122622844737</v>
       </c>
       <c r="V37" t="n">
-        <v>1151.012851874789</v>
+        <v>1151.01285187479</v>
       </c>
       <c r="W37" t="n">
-        <v>943.1703990737676</v>
+        <v>943.1703990737684</v>
       </c>
       <c r="X37" t="n">
-        <v>796.7555654116896</v>
+        <v>796.7555654116904</v>
       </c>
       <c r="Y37" t="n">
-        <v>657.5377035040989</v>
+        <v>657.5377035040996</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1864.618257733963</v>
+        <v>1864.618257733964</v>
       </c>
       <c r="C38" t="n">
-        <v>1577.23045802949</v>
+        <v>1577.230458029492</v>
       </c>
       <c r="D38" t="n">
-        <v>1300.539476658679</v>
+        <v>1300.539476658681</v>
       </c>
       <c r="E38" t="n">
-        <v>996.3259412963744</v>
+        <v>996.325941296376</v>
       </c>
       <c r="F38" t="n">
-        <v>666.9147537427059</v>
+        <v>666.9147537427077</v>
       </c>
       <c r="G38" t="n">
-        <v>331.7350361372778</v>
+        <v>331.7350361372785</v>
       </c>
       <c r="H38" t="n">
-        <v>98.50052731275966</v>
+        <v>98.50052731275973</v>
       </c>
       <c r="I38" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J38" t="n">
-        <v>289.6029146929198</v>
+        <v>289.6029146929199</v>
       </c>
       <c r="K38" t="n">
-        <v>734.6291869951513</v>
+        <v>734.6291869951514</v>
       </c>
       <c r="L38" t="n">
-        <v>928.0289281699718</v>
+        <v>1339.000257243148</v>
       </c>
       <c r="M38" t="n">
-        <v>1617.114739132122</v>
+        <v>1617.114739132123</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.718681386862</v>
+        <v>2302.718681386863</v>
       </c>
       <c r="O38" t="n">
-        <v>2904.927404788464</v>
+        <v>2904.927404788466</v>
       </c>
       <c r="P38" t="n">
-        <v>3381.224234712971</v>
+        <v>3381.224234712972</v>
       </c>
       <c r="Q38" t="n">
-        <v>3661.68155835598</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="R38" t="n">
-        <v>3661.68155835598</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="S38" t="n">
-        <v>3594.637381078495</v>
+        <v>3594.637381078496</v>
       </c>
       <c r="T38" t="n">
-        <v>3462.871462734098</v>
+        <v>3462.8714627341</v>
       </c>
       <c r="U38" t="n">
-        <v>3290.781144468964</v>
+        <v>3290.781144468966</v>
       </c>
       <c r="V38" t="n">
-        <v>3041.292974361333</v>
+        <v>3041.292974361334</v>
       </c>
       <c r="W38" t="n">
-        <v>2770.099036327158</v>
+        <v>2770.09903632716</v>
       </c>
       <c r="X38" t="n">
-        <v>2478.207995302017</v>
+        <v>2478.207995302019</v>
       </c>
       <c r="Y38" t="n">
-        <v>2169.643380562145</v>
+        <v>2169.643380562147</v>
       </c>
     </row>
     <row r="39">
@@ -7236,25 +7236,25 @@
         <v>655.226196631379</v>
       </c>
       <c r="E39" t="n">
-        <v>495.9887416259235</v>
+        <v>495.9887416259236</v>
       </c>
       <c r="F39" t="n">
         <v>349.4541836528085</v>
       </c>
       <c r="G39" t="n">
-        <v>212.1911423393215</v>
+        <v>212.1911423393216</v>
       </c>
       <c r="H39" t="n">
-        <v>112.9977111187535</v>
+        <v>112.9977111187536</v>
       </c>
       <c r="I39" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J39" t="n">
-        <v>208.408314474099</v>
+        <v>208.4083144740991</v>
       </c>
       <c r="K39" t="n">
-        <v>566.0642216673205</v>
+        <v>566.0642216673206</v>
       </c>
       <c r="L39" t="n">
         <v>1108.381122655782</v>
@@ -7266,7 +7266,7 @@
         <v>1576.291713565417</v>
       </c>
       <c r="O39" t="n">
-        <v>2167.318763118135</v>
+        <v>1922.044078952694</v>
       </c>
       <c r="P39" t="n">
         <v>2379.392324406454</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.4639559097988</v>
+        <v>557.4639559097991</v>
       </c>
       <c r="C40" t="n">
-        <v>470.1024902178312</v>
+        <v>470.1024902178315</v>
       </c>
       <c r="D40" t="n">
-        <v>401.5605680414348</v>
+        <v>401.5605680414351</v>
       </c>
       <c r="E40" t="n">
-        <v>335.2221916949811</v>
+        <v>335.2221916949813</v>
       </c>
       <c r="F40" t="n">
-        <v>269.9069614330101</v>
+        <v>269.9069614330102</v>
       </c>
       <c r="G40" t="n">
-        <v>183.0243616177563</v>
+        <v>183.0243616177565</v>
       </c>
       <c r="H40" t="n">
         <v>111.6738751938991</v>
       </c>
       <c r="I40" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J40" t="n">
         <v>146.0273790106459</v>
@@ -7339,43 +7339,43 @@
         <v>630.626119522779</v>
       </c>
       <c r="M40" t="n">
-        <v>938.8198471678184</v>
+        <v>938.8198471678193</v>
       </c>
       <c r="N40" t="n">
-        <v>1247.021098363073</v>
+        <v>1247.021098363074</v>
       </c>
       <c r="O40" t="n">
-        <v>1521.781882237293</v>
+        <v>1521.781882237294</v>
       </c>
       <c r="P40" t="n">
         <v>1744.905679439662</v>
       </c>
       <c r="Q40" t="n">
-        <v>1840.547139855714</v>
+        <v>1840.547139855715</v>
       </c>
       <c r="R40" t="n">
-        <v>1798.367216334991</v>
+        <v>1798.367216334992</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.107513247998</v>
+        <v>1675.107513247999</v>
       </c>
       <c r="T40" t="n">
         <v>1531.691925960931</v>
       </c>
       <c r="U40" t="n">
-        <v>1324.122622844736</v>
+        <v>1324.122622844737</v>
       </c>
       <c r="V40" t="n">
-        <v>1151.012851874789</v>
+        <v>1151.01285187479</v>
       </c>
       <c r="W40" t="n">
-        <v>943.1703990737678</v>
+        <v>943.1703990737683</v>
       </c>
       <c r="X40" t="n">
-        <v>796.7555654116899</v>
+        <v>796.7555654116902</v>
       </c>
       <c r="Y40" t="n">
-        <v>657.5377035040991</v>
+        <v>657.5377035040995</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1864.618257733963</v>
+        <v>1864.618257733964</v>
       </c>
       <c r="C41" t="n">
-        <v>1577.230458029491</v>
+        <v>1577.230458029492</v>
       </c>
       <c r="D41" t="n">
-        <v>1300.53947665868</v>
+        <v>1300.539476658681</v>
       </c>
       <c r="E41" t="n">
-        <v>996.3259412963748</v>
+        <v>996.3259412963755</v>
       </c>
       <c r="F41" t="n">
-        <v>666.9147537427066</v>
+        <v>666.9147537427073</v>
       </c>
       <c r="G41" t="n">
-        <v>331.7350361372784</v>
+        <v>331.7350361372792</v>
       </c>
       <c r="H41" t="n">
-        <v>98.50052731275963</v>
+        <v>98.50052731275974</v>
       </c>
       <c r="I41" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J41" t="n">
-        <v>289.6029146929198</v>
+        <v>289.6029146929199</v>
       </c>
       <c r="K41" t="n">
-        <v>680.1271318818102</v>
+        <v>413.7252285496983</v>
       </c>
       <c r="L41" t="n">
-        <v>1284.498202129806</v>
+        <v>1018.096298797694</v>
       </c>
       <c r="M41" t="n">
-        <v>1973.584013091956</v>
+        <v>1707.182109759844</v>
       </c>
       <c r="N41" t="n">
-        <v>2659.187955346697</v>
+        <v>2392.786052014585</v>
       </c>
       <c r="O41" t="n">
-        <v>2884.404499298181</v>
+        <v>2994.994775416187</v>
       </c>
       <c r="P41" t="n">
-        <v>3360.701329222687</v>
+        <v>3360.701329222688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3641.158652865697</v>
+        <v>3641.158652865698</v>
       </c>
       <c r="R41" t="n">
-        <v>3661.68155835598</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="S41" t="n">
-        <v>3594.637381078495</v>
+        <v>3594.637381078496</v>
       </c>
       <c r="T41" t="n">
-        <v>3462.871462734098</v>
+        <v>3462.8714627341</v>
       </c>
       <c r="U41" t="n">
-        <v>3290.781144468965</v>
+        <v>3290.781144468966</v>
       </c>
       <c r="V41" t="n">
-        <v>3041.292974361333</v>
+        <v>3041.292974361335</v>
       </c>
       <c r="W41" t="n">
-        <v>2770.099036327159</v>
+        <v>2770.09903632716</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.207995302018</v>
+        <v>2478.207995302019</v>
       </c>
       <c r="Y41" t="n">
-        <v>2169.643380562145</v>
+        <v>2169.643380562147</v>
       </c>
     </row>
     <row r="42">
@@ -7473,40 +7473,40 @@
         <v>655.226196631379</v>
       </c>
       <c r="E42" t="n">
-        <v>495.9887416259235</v>
+        <v>495.9887416259236</v>
       </c>
       <c r="F42" t="n">
         <v>349.4541836528085</v>
       </c>
       <c r="G42" t="n">
-        <v>212.1911423393215</v>
+        <v>212.1911423393216</v>
       </c>
       <c r="H42" t="n">
-        <v>112.9977111187535</v>
+        <v>112.9977111187536</v>
       </c>
       <c r="I42" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J42" t="n">
-        <v>83.57818948709425</v>
+        <v>208.4083144740991</v>
       </c>
       <c r="K42" t="n">
-        <v>179.4135120378629</v>
+        <v>566.0642216673206</v>
       </c>
       <c r="L42" t="n">
-        <v>596.534002748714</v>
+        <v>1108.381122655782</v>
       </c>
       <c r="M42" t="n">
-        <v>820.3234552943655</v>
+        <v>1476.819587119955</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.993544258467</v>
+        <v>1720.940725483938</v>
       </c>
       <c r="O42" t="n">
-        <v>2130.020593811185</v>
+        <v>1922.044078952694</v>
       </c>
       <c r="P42" t="n">
-        <v>2587.368839264945</v>
+        <v>2379.392324406454</v>
       </c>
       <c r="Q42" t="n">
         <v>2632.419745321072</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>557.4639559097986</v>
+        <v>557.4639559097993</v>
       </c>
       <c r="C43" t="n">
-        <v>470.1024902178311</v>
+        <v>470.1024902178316</v>
       </c>
       <c r="D43" t="n">
-        <v>401.5605680414347</v>
+        <v>401.5605680414352</v>
       </c>
       <c r="E43" t="n">
-        <v>335.222191694981</v>
+        <v>335.2221916949813</v>
       </c>
       <c r="F43" t="n">
-        <v>269.90696143301</v>
+        <v>269.9069614330103</v>
       </c>
       <c r="G43" t="n">
-        <v>183.0243616177563</v>
+        <v>183.0243616177565</v>
       </c>
       <c r="H43" t="n">
-        <v>111.673875193899</v>
+        <v>111.6738751938991</v>
       </c>
       <c r="I43" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J43" t="n">
-        <v>146.0273790106446</v>
+        <v>146.0273790106468</v>
       </c>
       <c r="K43" t="n">
-        <v>344.0534071199453</v>
+        <v>344.0534071199475</v>
       </c>
       <c r="L43" t="n">
-        <v>630.6261195227778</v>
+        <v>630.6261195227798</v>
       </c>
       <c r="M43" t="n">
-        <v>938.819847167818</v>
+        <v>938.8198471678199</v>
       </c>
       <c r="N43" t="n">
-        <v>1247.021098363073</v>
+        <v>1247.021098363075</v>
       </c>
       <c r="O43" t="n">
-        <v>1521.781882237293</v>
+        <v>1521.781882237295</v>
       </c>
       <c r="P43" t="n">
-        <v>1744.905679439662</v>
+        <v>1744.905679439663</v>
       </c>
       <c r="Q43" t="n">
-        <v>1840.547139855714</v>
+        <v>1840.547139855716</v>
       </c>
       <c r="R43" t="n">
-        <v>1798.367216334991</v>
+        <v>1798.367216334992</v>
       </c>
       <c r="S43" t="n">
-        <v>1675.107513247998</v>
+        <v>1675.107513248</v>
       </c>
       <c r="T43" t="n">
-        <v>1531.691925960931</v>
+        <v>1531.691925960932</v>
       </c>
       <c r="U43" t="n">
-        <v>1324.122622844736</v>
+        <v>1324.122622844738</v>
       </c>
       <c r="V43" t="n">
-        <v>1151.012851874789</v>
+        <v>1151.01285187479</v>
       </c>
       <c r="W43" t="n">
-        <v>943.1703990737677</v>
+        <v>943.1703990737687</v>
       </c>
       <c r="X43" t="n">
-        <v>796.7555654116898</v>
+        <v>796.7555654116907</v>
       </c>
       <c r="Y43" t="n">
-        <v>657.537703504099</v>
+        <v>657.5377035040998</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1864.618257733963</v>
+        <v>1864.618257733964</v>
       </c>
       <c r="C44" t="n">
         <v>1577.230458029491</v>
       </c>
       <c r="D44" t="n">
-        <v>1300.539476658679</v>
+        <v>1300.53947665868</v>
       </c>
       <c r="E44" t="n">
-        <v>996.3259412963746</v>
+        <v>996.325941296375</v>
       </c>
       <c r="F44" t="n">
-        <v>666.9147537427064</v>
+        <v>666.9147537427068</v>
       </c>
       <c r="G44" t="n">
-        <v>331.7350361372783</v>
+        <v>331.7350361372787</v>
       </c>
       <c r="H44" t="n">
-        <v>98.50052731275952</v>
+        <v>98.50052731275974</v>
       </c>
       <c r="I44" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J44" t="n">
-        <v>289.6029146929197</v>
+        <v>122.1972656725668</v>
       </c>
       <c r="K44" t="n">
-        <v>734.6291869951511</v>
+        <v>567.2235379747983</v>
       </c>
       <c r="L44" t="n">
-        <v>1339.000257243147</v>
+        <v>1171.594608222794</v>
       </c>
       <c r="M44" t="n">
-        <v>1596.591833641839</v>
+        <v>1827.306579885429</v>
       </c>
       <c r="N44" t="n">
-        <v>2282.195775896579</v>
+        <v>2512.910522140169</v>
       </c>
       <c r="O44" t="n">
-        <v>2884.404499298181</v>
+        <v>3115.119245541771</v>
       </c>
       <c r="P44" t="n">
-        <v>3360.701329222687</v>
+        <v>3591.416075466278</v>
       </c>
       <c r="Q44" t="n">
-        <v>3641.158652865697</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="R44" t="n">
-        <v>3661.68155835598</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="S44" t="n">
-        <v>3594.637381078495</v>
+        <v>3594.637381078496</v>
       </c>
       <c r="T44" t="n">
-        <v>3462.871462734098</v>
+        <v>3462.871462734099</v>
       </c>
       <c r="U44" t="n">
-        <v>3290.781144468965</v>
+        <v>3290.781144468966</v>
       </c>
       <c r="V44" t="n">
-        <v>3041.292974361333</v>
+        <v>3041.292974361334</v>
       </c>
       <c r="W44" t="n">
         <v>2770.099036327159</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.207995302018</v>
+        <v>2478.207995302019</v>
       </c>
       <c r="Y44" t="n">
-        <v>2169.643380562145</v>
+        <v>2169.643380562146</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>112.9977111187536</v>
       </c>
       <c r="I45" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J45" t="n">
-        <v>208.408314474099</v>
+        <v>208.4083144740991</v>
       </c>
       <c r="K45" t="n">
-        <v>304.2436370248676</v>
+        <v>564.9433614268796</v>
       </c>
       <c r="L45" t="n">
-        <v>846.5605380133293</v>
+        <v>1107.260262415341</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.247151378328</v>
+        <v>1792.097728073493</v>
       </c>
       <c r="N45" t="n">
-        <v>1928.917240342429</v>
+        <v>2036.218866437476</v>
       </c>
       <c r="O45" t="n">
-        <v>2130.020593811185</v>
+        <v>2237.322219906232</v>
       </c>
       <c r="P45" t="n">
-        <v>2587.368839264945</v>
+        <v>2379.392324406454</v>
       </c>
       <c r="Q45" t="n">
         <v>2632.419745321072</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.4639559097989</v>
+        <v>557.463955909799</v>
       </c>
       <c r="C46" t="n">
-        <v>470.1024902178314</v>
+        <v>470.1024902178313</v>
       </c>
       <c r="D46" t="n">
-        <v>401.560568041435</v>
+        <v>401.5605680414349</v>
       </c>
       <c r="E46" t="n">
-        <v>335.2221916949813</v>
+        <v>335.2221916949811</v>
       </c>
       <c r="F46" t="n">
-        <v>269.9069614330103</v>
+        <v>269.90696143301</v>
       </c>
       <c r="G46" t="n">
-        <v>183.0243616177565</v>
+        <v>183.0243616177562</v>
       </c>
       <c r="H46" t="n">
         <v>111.6738751938991</v>
       </c>
       <c r="I46" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J46" t="n">
         <v>146.0273790106459</v>
       </c>
       <c r="K46" t="n">
-        <v>344.0534071199467</v>
+        <v>344.0534071199466</v>
       </c>
       <c r="L46" t="n">
         <v>630.6261195227789</v>
       </c>
       <c r="M46" t="n">
-        <v>938.8198471678191</v>
+        <v>938.8198471678194</v>
       </c>
       <c r="N46" t="n">
         <v>1247.021098363074</v>
@@ -7822,7 +7822,7 @@
         <v>1521.781882237294</v>
       </c>
       <c r="P46" t="n">
-        <v>1744.905679439662</v>
+        <v>1744.905679439663</v>
       </c>
       <c r="Q46" t="n">
         <v>1840.547139855715</v>
@@ -7843,13 +7843,13 @@
         <v>1151.01285187479</v>
       </c>
       <c r="W46" t="n">
-        <v>943.1703990737685</v>
+        <v>943.1703990737683</v>
       </c>
       <c r="X46" t="n">
-        <v>796.7555654116906</v>
+        <v>796.7555654116902</v>
       </c>
       <c r="Y46" t="n">
-        <v>657.5377035040992</v>
+        <v>657.5377035040995</v>
       </c>
     </row>
   </sheetData>
@@ -8456,19 +8456,19 @@
         <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M8" t="n">
-        <v>237.2222789689842</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
-        <v>236.0112893083342</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.7174847160704</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>140.8504531560417</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>78.02362702313712</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>230.5409020936852</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>352.8813538611187</v>
+        <v>426.8036484831629</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>37.76923320578544</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>120.7654155856634</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,16 +8936,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>397.6712903607142</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>78.02362702313704</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>44.98621230703972</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>338.5113094844926</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>426.8036484831629</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>406.2665921010095</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>146.110113049011</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,16 +9164,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>406.3208603431685</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>258.4605964024928</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>114.5596127180077</v>
       </c>
       <c r="R17" t="n">
-        <v>44.98621230703972</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>130.3997933009892</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>406.2665921010095</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>146.110113049011</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9401,25 +9401,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>221.5995631147875</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>406.3208603431685</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.2898202839503</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>44.98621230703972</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>406.2665921010096</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>2.342986408235276</v>
+        <v>209.1142272203425</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>68.01710387023742</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>403.5285729868524</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>44.98621230703972</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>375.7867796983826</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>196.8015977526285</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>162.0006047523275</v>
       </c>
       <c r="K26" t="n">
-        <v>127.8340039826364</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,16 +9887,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>44.98621230703972</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.13702971096075</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5728816889482</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>315.3141223209703</v>
+        <v>146.2175071488961</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>44.98621230703972</v>
+        <v>44.98621230703969</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>16.45682423926289</v>
+        <v>123.0881390757403</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>194.1234430250436</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>118.9911442120183</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>44.98621230703969</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>154.8310259114331</v>
+        <v>240.3110809782569</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,10 +10437,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10589,10 +10589,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>2.538659931082037</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>34.39097887346335</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>44.98621230703972</v>
+        <v>44.98621230703969</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>146.1101130490114</v>
       </c>
       <c r="P36" t="n">
-        <v>226.6737703847035</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,10 +10826,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>2.538659931081128</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>34.39097887346426</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>44.98621230703972</v>
+        <v>44.98621230703969</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>146.1101130490114</v>
       </c>
       <c r="P39" t="n">
-        <v>70.71056241221933</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>269.092831648598</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11072,10 +11072,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>210.0913585573361</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>244.3793248210241</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>146.1101130490112</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>13.66077130752066</v>
+        <v>415.8025847054425</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>44.98621230703969</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>263.3330549515272</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>141.310263453886</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>326.1170756781315</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.37373550471042</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.4482591609531</v>
       </c>
       <c r="U11" t="n">
-        <v>170.3694150824821</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>246.993288406555</v>
       </c>
       <c r="W11" t="n">
-        <v>1.565344180287984</v>
+        <v>268.4819986538331</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>32.74784162140557</v>
       </c>
     </row>
     <row r="12">
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.192202140984591e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>301.1714000086819</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1170756781315</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>331.8279204293739</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>113.9623588757662</v>
       </c>
       <c r="I14" t="n">
-        <v>25.01422718418371</v>
+        <v>25.01422718418372</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.4482591609531</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>170.3694150824821</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>246.993288406555</v>
       </c>
       <c r="W14" t="n">
-        <v>78.04808718392002</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>288.9721306148891</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164.0375064991055</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>221.9413553713747</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>235.6094914961878</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>293.5133403684587</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23969,22 +23969,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>194.6940269197962</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>262.8568199477666</v>
       </c>
       <c r="F20" t="n">
-        <v>287.8024956172164</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>169.748351250348</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>42.41208119084968</v>
       </c>
       <c r="E28" t="n">
-        <v>42.41208119085198</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>42.41208119085169</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>42.4120811908499</v>
       </c>
     </row>
     <row r="32">
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862400.9820438381</v>
+        <v>862400.982043838</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>910441.5500853638</v>
+        <v>910441.5500853639</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>910441.5500853638</v>
+        <v>910441.5500853639</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26314,46 @@
         <v>553011.5286340008</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="D2" t="n">
-        <v>553750.4285094053</v>
+        <v>553750.4285094055</v>
       </c>
       <c r="E2" t="n">
-        <v>499453.9798161696</v>
+        <v>499453.9798161694</v>
       </c>
       <c r="F2" t="n">
-        <v>499453.9798161696</v>
+        <v>499453.9798161694</v>
       </c>
       <c r="G2" t="n">
-        <v>529618.9876561967</v>
+        <v>529618.9876561972</v>
       </c>
       <c r="H2" t="n">
-        <v>529618.9876561967</v>
+        <v>529618.987656197</v>
       </c>
       <c r="I2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="J2" t="n">
-        <v>553516.1189430995</v>
+        <v>553516.1189430997</v>
       </c>
       <c r="K2" t="n">
-        <v>553516.1189430996</v>
+        <v>553516.1189430994</v>
       </c>
       <c r="L2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="M2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="M2" t="n">
-        <v>554203.1946583912</v>
-      </c>
       <c r="N2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="O2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583909</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>30651.66404873213</v>
+        <v>30651.66404873223</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31352.39609097853</v>
+        <v>31352.39609097841</v>
       </c>
       <c r="J3" t="n">
-        <v>72182.30382024281</v>
+        <v>72182.3038202428</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32074.84049216866</v>
+        <v>32074.8404921687</v>
       </c>
       <c r="M3" t="n">
-        <v>160980.1905683146</v>
+        <v>160980.1905683145</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32532.33555869529</v>
+        <v>32532.33555869524</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>149098.9743384189</v>
       </c>
       <c r="G4" t="n">
-        <v>174412.9866526597</v>
+        <v>174412.9866526598</v>
       </c>
       <c r="H4" t="n">
         <v>174412.9866526597</v>
@@ -26454,10 +26454,10 @@
         <v>178187.9924915794</v>
       </c>
       <c r="O4" t="n">
-        <v>178187.9924915795</v>
+        <v>178187.9924915794</v>
       </c>
       <c r="P4" t="n">
-        <v>178187.9924915795</v>
+        <v>178187.9924915794</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>61210.18420721666</v>
+        <v>61210.18420721665</v>
       </c>
       <c r="F5" t="n">
-        <v>61210.18420721666</v>
+        <v>61210.18420721665</v>
       </c>
       <c r="G5" t="n">
         <v>64431.25263835774</v>
@@ -26488,28 +26488,28 @@
         <v>64431.25263835774</v>
       </c>
       <c r="I5" t="n">
-        <v>71599.64356021609</v>
+        <v>71599.64356021606</v>
       </c>
       <c r="J5" t="n">
-        <v>77442.75228638631</v>
+        <v>77442.7522863863</v>
       </c>
       <c r="K5" t="n">
-        <v>77442.75228638631</v>
+        <v>77442.75228638633</v>
       </c>
       <c r="L5" t="n">
         <v>77174.24498081933</v>
       </c>
       <c r="M5" t="n">
-        <v>77174.24498081933</v>
+        <v>77174.24498081932</v>
       </c>
       <c r="N5" t="n">
-        <v>77174.24498081932</v>
+        <v>77174.24498081935</v>
       </c>
       <c r="O5" t="n">
-        <v>77174.24498081932</v>
+        <v>77174.24498081935</v>
       </c>
       <c r="P5" t="n">
-        <v>77174.24498081932</v>
+        <v>77174.24498081935</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99236.15974446954</v>
+        <v>99231.74616660143</v>
       </c>
       <c r="C6" t="n">
-        <v>99236.15974446965</v>
+        <v>99231.74616660143</v>
       </c>
       <c r="D6" t="n">
-        <v>97622.73807131889</v>
+        <v>97621.06115965615</v>
       </c>
       <c r="E6" t="n">
-        <v>-511089.5528736401</v>
+        <v>-511292.3277434263</v>
       </c>
       <c r="F6" t="n">
-        <v>289144.8212705341</v>
+        <v>288942.0464007479</v>
       </c>
       <c r="G6" t="n">
-        <v>260123.0843164471</v>
+        <v>260032.0316979207</v>
       </c>
       <c r="H6" t="n">
-        <v>290774.7483651793</v>
+        <v>290683.695746653</v>
       </c>
       <c r="I6" t="n">
-        <v>263776.2377710793</v>
+        <v>263776.2377710798</v>
       </c>
       <c r="J6" t="n">
-        <v>226739.0241320656</v>
+        <v>226736.4794071943</v>
       </c>
       <c r="K6" t="n">
-        <v>298921.3279523086</v>
+        <v>298918.7832274368</v>
       </c>
       <c r="L6" t="n">
-        <v>266766.1166938238</v>
+        <v>266766.1166938236</v>
       </c>
       <c r="M6" t="n">
-        <v>137860.7666176778</v>
+        <v>137860.766617678</v>
       </c>
       <c r="N6" t="n">
-        <v>298840.9571859927</v>
+        <v>298840.9571859926</v>
       </c>
       <c r="O6" t="n">
         <v>266308.6216272971</v>
       </c>
       <c r="P6" t="n">
-        <v>298840.9571859925</v>
+        <v>298840.9571859922</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>80.75897006357988</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80.75897006357988</v>
+      </c>
+      <c r="G2" t="n">
+        <v>119.0735501244952</v>
+      </c>
+      <c r="H2" t="n">
+        <v>119.0735501244952</v>
+      </c>
+      <c r="I2" t="n">
+        <v>119.0735501244952</v>
+      </c>
+      <c r="J2" t="n">
+        <v>78.97999950928435</v>
+      </c>
+      <c r="K2" t="n">
+        <v>78.97999950928433</v>
+      </c>
+      <c r="L2" t="n">
         <v>80.75897006357991</v>
-      </c>
-      <c r="F2" t="n">
-        <v>80.75897006357991</v>
-      </c>
-      <c r="G2" t="n">
-        <v>119.0735501244951</v>
-      </c>
-      <c r="H2" t="n">
-        <v>119.0735501244951</v>
-      </c>
-      <c r="I2" t="n">
-        <v>119.0735501244951</v>
-      </c>
-      <c r="J2" t="n">
-        <v>78.97999950928426</v>
-      </c>
-      <c r="K2" t="n">
-        <v>78.97999950928426</v>
-      </c>
-      <c r="L2" t="n">
-        <v>80.75897006357992</v>
       </c>
       <c r="M2" t="n">
         <v>80.75897006357991</v>
       </c>
       <c r="N2" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="O2" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="P2" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
     </row>
     <row r="3">
@@ -26762,22 +26762,22 @@
         <v>675.5669467675837</v>
       </c>
       <c r="K3" t="n">
-        <v>675.5669467675837</v>
+        <v>675.5669467675838</v>
       </c>
       <c r="L3" t="n">
-        <v>675.5669467675837</v>
+        <v>675.5669467675838</v>
       </c>
       <c r="M3" t="n">
-        <v>675.5669467675837</v>
+        <v>675.5669467675838</v>
       </c>
       <c r="N3" t="n">
-        <v>675.5669467675837</v>
+        <v>675.5669467675838</v>
       </c>
       <c r="O3" t="n">
-        <v>675.5669467675837</v>
+        <v>675.5669467675838</v>
       </c>
       <c r="P3" t="n">
-        <v>675.5669467675835</v>
+        <v>675.5669467675838</v>
       </c>
     </row>
     <row r="4">
@@ -26808,10 +26808,10 @@
         <v>652.8536005494776</v>
       </c>
       <c r="I4" t="n">
-        <v>770.754767027411</v>
+        <v>770.7547670274106</v>
       </c>
       <c r="J4" t="n">
-        <v>922.2964353307069</v>
+        <v>922.2964353307065</v>
       </c>
       <c r="K4" t="n">
         <v>922.2964353307067</v>
@@ -26820,16 +26820,16 @@
         <v>915.4203895889952</v>
       </c>
       <c r="M4" t="n">
-        <v>915.4203895889952</v>
+        <v>915.4203895889951</v>
       </c>
       <c r="N4" t="n">
-        <v>915.420389588995</v>
+        <v>915.4203895889954</v>
       </c>
       <c r="O4" t="n">
-        <v>915.420389588995</v>
+        <v>915.4203895889954</v>
       </c>
       <c r="P4" t="n">
-        <v>915.420389588995</v>
+        <v>915.4203895889954</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.31458006091516</v>
+        <v>38.31458006091529</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.66541944836909</v>
+        <v>40.66541944836906</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.09355061521083</v>
+        <v>40.09355061521087</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.66541944836911</v>
+        <v>40.66541944836905</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>117.9011664779334</v>
+        <v>117.901166477933</v>
       </c>
       <c r="J4" t="n">
         <v>151.5416683032959</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>645.9775548077662</v>
+        <v>645.9775548077661</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31458006091516</v>
+        <v>38.31458006091529</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.66541944836909</v>
+        <v>40.66541944836906</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>3.934278125245373</v>
       </c>
       <c r="R8" t="n">
-        <v>142.9930721994382</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27944,16 +27944,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>132.0336874001691</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I9" t="n">
         <v>82.52058710970364</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,16 +27986,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>219.8849609916754</v>
+        <v>219.0653363392634</v>
       </c>
       <c r="V9" t="n">
-        <v>225.9245414077138</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>156.1707514181402</v>
       </c>
       <c r="I10" t="n">
-        <v>149.3940538379589</v>
+        <v>148.5744291855468</v>
       </c>
       <c r="J10" t="n">
-        <v>86.48313437496134</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28053,7 +28053,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.28599750998295</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="C11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="D11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="E11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="F11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="G11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="H11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="I11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="T11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="U11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="V11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="W11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="X11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Y11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
     </row>
     <row r="12">
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28223,7 +28223,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="C13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="D13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="E13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="F13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="G13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="H13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="I13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="J13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="K13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="L13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="M13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="N13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="O13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="P13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="R13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="S13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="T13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="U13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="V13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="W13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="X13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="C14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="D14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="E14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="F14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="G14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="H14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="I14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="T14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="U14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="V14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="W14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="X14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="C16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="D16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="E16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="F16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="G16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="H16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="I16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="J16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="K16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="L16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="M16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="N16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="O16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="P16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="R16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="S16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="T16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="U16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="V16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="W16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="X16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357988</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="C17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="D17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="E17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="F17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="G17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="H17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="I17" t="n">
         <v>105.7731972477636</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="T17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="U17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="V17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="W17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="X17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="Y17" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
     </row>
     <row r="18">
@@ -28719,25 +28719,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="C19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="D19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="E19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="F19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="H19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="I19" t="n">
         <v>118.8148116500916</v>
@@ -28746,7 +28746,7 @@
         <v>7.229931837795775</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>13.62548084894698</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.62548084894852</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="S19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="T19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="U19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="V19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="W19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="X19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="Y19" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="C20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="D20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="E20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="F20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="G20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="H20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="I20" t="n">
         <v>105.7731972477636</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="T20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="U20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="V20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="W20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="X20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="Y20" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
     </row>
     <row r="21">
@@ -28956,25 +28956,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="C22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="D22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="E22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="F22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="H22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="I22" t="n">
         <v>118.8148116500916</v>
@@ -28983,7 +28983,7 @@
         <v>7.229931837795775</v>
       </c>
       <c r="K22" t="n">
-        <v>13.6254808489486</v>
+        <v>13.62548084894698</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="S22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="T22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="U22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="V22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="W22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="X22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="C23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="D23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="E23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="F23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="G23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="H23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="I23" t="n">
         <v>105.7731972477636</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="T23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="U23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="V23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="W23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="X23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="Y23" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="C25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="D25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="E25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="F25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="H25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="I25" t="n">
-        <v>118.8148116500916</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="J25" t="n">
         <v>7.229931837795775</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>13.36674237454335</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>13.62548084894851</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="S25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="T25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="U25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="V25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="W25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="X25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.0735501244951</v>
+        <v>119.0735501244952</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="C26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="D26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="E26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="F26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="G26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="H26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="I26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="T26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="U26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="V26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="W26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="X26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="C28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="D28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="E28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="F28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="G28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="H28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="I28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="J28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="K28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="L28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="M28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="N28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="O28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="P28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="R28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="S28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="T28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="U28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="V28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="W28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="X28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928435</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="C29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="D29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="E29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="F29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="G29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="H29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="I29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="T29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="U29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="V29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="W29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="X29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="C31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="D31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="E31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="F31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="G31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="H31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="I31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="J31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="K31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="L31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="M31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="N31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="O31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="P31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="R31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="S31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="T31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="U31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="V31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="W31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="X31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.97999950928426</v>
+        <v>78.97999950928433</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="K34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="L34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="M34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="N34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="O34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="P34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="R34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="S34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="35">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="C38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="D38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="E38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="F38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="G38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="H38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="I38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="T38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="U38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="V38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="W38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="X38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="C40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="D40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="E40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="F40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="G40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="H40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="I40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="J40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="K40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="L40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="M40" t="n">
-        <v>80.75897006357903</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="N40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="O40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="P40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357962</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="R40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="S40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="T40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="U40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="V40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="W40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="X40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357989</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="C41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="D41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="E41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="F41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="G41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="H41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="I41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="T41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="V41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="W41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="X41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="C43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="D43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="E43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="F43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="G43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="H43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="I43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="J43" t="n">
-        <v>80.75897006357856</v>
+        <v>80.75897006358075</v>
       </c>
       <c r="K43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="L43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="M43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="N43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="O43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="P43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="R43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="S43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="T43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="U43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="V43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="W43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="X43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="C44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="D44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="E44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="F44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="G44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="H44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="I44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="T44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="V44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="W44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="X44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="C46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="D46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="E46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="F46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="G46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="H46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="I46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="J46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="K46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="L46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="M46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="N46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="O46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="P46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="R46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="S46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="T46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="U46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="V46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="W46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="X46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.75897006357997</v>
+        <v>80.75897006357988</v>
       </c>
     </row>
   </sheetData>
@@ -33181,19 +33181,19 @@
         <v>104.7026923226423</v>
       </c>
       <c r="J29" t="n">
-        <v>230.5041211988551</v>
+        <v>230.5041211988552</v>
       </c>
       <c r="K29" t="n">
-        <v>345.465925647787</v>
+        <v>345.4659256477871</v>
       </c>
       <c r="L29" t="n">
-        <v>428.5810289528662</v>
+        <v>428.5810289528663</v>
       </c>
       <c r="M29" t="n">
         <v>476.8789734335818</v>
       </c>
       <c r="N29" t="n">
-        <v>484.5953737853543</v>
+        <v>484.5953737853544</v>
       </c>
       <c r="O29" t="n">
         <v>457.5896699585396</v>
@@ -33208,7 +33208,7 @@
         <v>170.5993255070924</v>
       </c>
       <c r="S29" t="n">
-        <v>61.88736401795504</v>
+        <v>61.88736401795505</v>
       </c>
       <c r="T29" t="n">
         <v>11.88862033959838</v>
@@ -33266,7 +33266,7 @@
         <v>234.6447950862465</v>
       </c>
       <c r="L30" t="n">
-        <v>315.5088839597097</v>
+        <v>315.5088839597098</v>
       </c>
       <c r="M30" t="n">
         <v>368.1839859883331</v>
@@ -33275,25 +33275,25 @@
         <v>377.9287205318014</v>
       </c>
       <c r="O30" t="n">
-        <v>345.730944917935</v>
+        <v>345.7309449179351</v>
       </c>
       <c r="P30" t="n">
-        <v>277.4795634751609</v>
+        <v>277.479563475161</v>
       </c>
       <c r="Q30" t="n">
         <v>185.4877397992807</v>
       </c>
       <c r="R30" t="n">
-        <v>90.22005375888602</v>
+        <v>90.22005375888604</v>
       </c>
       <c r="S30" t="n">
-        <v>26.99081150528976</v>
+        <v>26.99081150528977</v>
       </c>
       <c r="T30" t="n">
-        <v>5.857037963013294</v>
+        <v>5.857037963013295</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09559909624069585</v>
+        <v>0.09559909624069586</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,10 +33339,10 @@
         <v>36.63566327716668</v>
       </c>
       <c r="J31" t="n">
-        <v>86.129248278877</v>
+        <v>86.12924827887701</v>
       </c>
       <c r="K31" t="n">
-        <v>141.5368127817986</v>
+        <v>141.5368127817987</v>
       </c>
       <c r="L31" t="n">
         <v>181.1183909415912</v>
@@ -33357,19 +33357,19 @@
         <v>172.1920473498753</v>
       </c>
       <c r="P31" t="n">
-        <v>147.3400436032119</v>
+        <v>147.340043603212</v>
       </c>
       <c r="Q31" t="n">
         <v>102.0106089619051</v>
       </c>
       <c r="R31" t="n">
-        <v>54.77629702807324</v>
+        <v>54.77629702807325</v>
       </c>
       <c r="S31" t="n">
         <v>21.23052191726979</v>
       </c>
       <c r="T31" t="n">
-        <v>5.205187950504331</v>
+        <v>5.205187950504332</v>
       </c>
       <c r="U31" t="n">
         <v>0.0664492078787788</v>
@@ -33418,19 +33418,19 @@
         <v>104.7026923226423</v>
       </c>
       <c r="J32" t="n">
-        <v>230.5041211988551</v>
+        <v>230.5041211988552</v>
       </c>
       <c r="K32" t="n">
-        <v>345.465925647787</v>
+        <v>345.4659256477871</v>
       </c>
       <c r="L32" t="n">
-        <v>428.5810289528662</v>
+        <v>428.5810289528663</v>
       </c>
       <c r="M32" t="n">
         <v>476.8789734335818</v>
       </c>
       <c r="N32" t="n">
-        <v>484.5953737853543</v>
+        <v>484.5953737853544</v>
       </c>
       <c r="O32" t="n">
         <v>457.5896699585396</v>
@@ -33445,7 +33445,7 @@
         <v>170.5993255070924</v>
       </c>
       <c r="S32" t="n">
-        <v>61.88736401795504</v>
+        <v>61.88736401795505</v>
       </c>
       <c r="T32" t="n">
         <v>11.88862033959838</v>
@@ -33503,7 +33503,7 @@
         <v>234.6447950862465</v>
       </c>
       <c r="L33" t="n">
-        <v>315.5088839597097</v>
+        <v>315.5088839597098</v>
       </c>
       <c r="M33" t="n">
         <v>368.1839859883331</v>
@@ -33512,25 +33512,25 @@
         <v>377.9287205318014</v>
       </c>
       <c r="O33" t="n">
-        <v>345.730944917935</v>
+        <v>345.7309449179351</v>
       </c>
       <c r="P33" t="n">
-        <v>277.4795634751609</v>
+        <v>277.479563475161</v>
       </c>
       <c r="Q33" t="n">
         <v>185.4877397992807</v>
       </c>
       <c r="R33" t="n">
-        <v>90.22005375888602</v>
+        <v>90.22005375888604</v>
       </c>
       <c r="S33" t="n">
-        <v>26.99081150528976</v>
+        <v>26.99081150528977</v>
       </c>
       <c r="T33" t="n">
-        <v>5.857037963013294</v>
+        <v>5.857037963013295</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09559909624069585</v>
+        <v>0.09559909624069586</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,10 +33576,10 @@
         <v>36.63566327716668</v>
       </c>
       <c r="J34" t="n">
-        <v>86.129248278877</v>
+        <v>86.12924827887701</v>
       </c>
       <c r="K34" t="n">
-        <v>141.5368127817986</v>
+        <v>141.5368127817987</v>
       </c>
       <c r="L34" t="n">
         <v>181.1183909415912</v>
@@ -33594,19 +33594,19 @@
         <v>172.1920473498753</v>
       </c>
       <c r="P34" t="n">
-        <v>147.3400436032119</v>
+        <v>147.340043603212</v>
       </c>
       <c r="Q34" t="n">
         <v>102.0106089619051</v>
       </c>
       <c r="R34" t="n">
-        <v>54.77629702807324</v>
+        <v>54.77629702807325</v>
       </c>
       <c r="S34" t="n">
         <v>21.23052191726979</v>
       </c>
       <c r="T34" t="n">
-        <v>5.205187950504331</v>
+        <v>5.205187950504332</v>
       </c>
       <c r="U34" t="n">
         <v>0.0664492078787788</v>
@@ -33655,19 +33655,19 @@
         <v>104.7026923226423</v>
       </c>
       <c r="J35" t="n">
-        <v>230.5041211988551</v>
+        <v>230.5041211988552</v>
       </c>
       <c r="K35" t="n">
-        <v>345.465925647787</v>
+        <v>345.4659256477871</v>
       </c>
       <c r="L35" t="n">
-        <v>428.5810289528662</v>
+        <v>428.5810289528663</v>
       </c>
       <c r="M35" t="n">
         <v>476.8789734335818</v>
       </c>
       <c r="N35" t="n">
-        <v>484.5953737853543</v>
+        <v>484.5953737853544</v>
       </c>
       <c r="O35" t="n">
         <v>457.5896699585396</v>
@@ -33682,7 +33682,7 @@
         <v>170.5993255070924</v>
       </c>
       <c r="S35" t="n">
-        <v>61.88736401795504</v>
+        <v>61.88736401795505</v>
       </c>
       <c r="T35" t="n">
         <v>11.88862033959838</v>
@@ -33740,7 +33740,7 @@
         <v>234.6447950862465</v>
       </c>
       <c r="L36" t="n">
-        <v>315.5088839597097</v>
+        <v>315.5088839597098</v>
       </c>
       <c r="M36" t="n">
         <v>368.1839859883331</v>
@@ -33749,25 +33749,25 @@
         <v>377.9287205318014</v>
       </c>
       <c r="O36" t="n">
-        <v>345.730944917935</v>
+        <v>345.7309449179351</v>
       </c>
       <c r="P36" t="n">
-        <v>277.4795634751609</v>
+        <v>277.479563475161</v>
       </c>
       <c r="Q36" t="n">
         <v>185.4877397992807</v>
       </c>
       <c r="R36" t="n">
-        <v>90.22005375888602</v>
+        <v>90.22005375888604</v>
       </c>
       <c r="S36" t="n">
-        <v>26.99081150528976</v>
+        <v>26.99081150528977</v>
       </c>
       <c r="T36" t="n">
-        <v>5.857037963013294</v>
+        <v>5.857037963013295</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09559909624069585</v>
+        <v>0.09559909624069586</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,10 +33813,10 @@
         <v>36.63566327716668</v>
       </c>
       <c r="J37" t="n">
-        <v>86.129248278877</v>
+        <v>86.12924827887701</v>
       </c>
       <c r="K37" t="n">
-        <v>141.5368127817986</v>
+        <v>141.5368127817987</v>
       </c>
       <c r="L37" t="n">
         <v>181.1183909415912</v>
@@ -33831,19 +33831,19 @@
         <v>172.1920473498753</v>
       </c>
       <c r="P37" t="n">
-        <v>147.3400436032119</v>
+        <v>147.340043603212</v>
       </c>
       <c r="Q37" t="n">
         <v>102.0106089619051</v>
       </c>
       <c r="R37" t="n">
-        <v>54.77629702807324</v>
+        <v>54.77629702807325</v>
       </c>
       <c r="S37" t="n">
         <v>21.23052191726979</v>
       </c>
       <c r="T37" t="n">
-        <v>5.205187950504331</v>
+        <v>5.205187950504332</v>
       </c>
       <c r="U37" t="n">
         <v>0.0664492078787788</v>
@@ -33892,19 +33892,19 @@
         <v>104.7026923226423</v>
       </c>
       <c r="J38" t="n">
-        <v>230.5041211988551</v>
+        <v>230.5041211988552</v>
       </c>
       <c r="K38" t="n">
-        <v>345.465925647787</v>
+        <v>345.4659256477871</v>
       </c>
       <c r="L38" t="n">
-        <v>428.5810289528662</v>
+        <v>428.5810289528663</v>
       </c>
       <c r="M38" t="n">
         <v>476.8789734335818</v>
       </c>
       <c r="N38" t="n">
-        <v>484.5953737853543</v>
+        <v>484.5953737853544</v>
       </c>
       <c r="O38" t="n">
         <v>457.5896699585396</v>
@@ -33919,7 +33919,7 @@
         <v>170.5993255070924</v>
       </c>
       <c r="S38" t="n">
-        <v>61.88736401795504</v>
+        <v>61.88736401795505</v>
       </c>
       <c r="T38" t="n">
         <v>11.88862033959838</v>
@@ -33977,7 +33977,7 @@
         <v>234.6447950862465</v>
       </c>
       <c r="L39" t="n">
-        <v>315.5088839597097</v>
+        <v>315.5088839597098</v>
       </c>
       <c r="M39" t="n">
         <v>368.1839859883331</v>
@@ -33986,25 +33986,25 @@
         <v>377.9287205318014</v>
       </c>
       <c r="O39" t="n">
-        <v>345.730944917935</v>
+        <v>345.7309449179351</v>
       </c>
       <c r="P39" t="n">
-        <v>277.4795634751609</v>
+        <v>277.479563475161</v>
       </c>
       <c r="Q39" t="n">
         <v>185.4877397992807</v>
       </c>
       <c r="R39" t="n">
-        <v>90.22005375888602</v>
+        <v>90.22005375888604</v>
       </c>
       <c r="S39" t="n">
-        <v>26.99081150528976</v>
+        <v>26.99081150528977</v>
       </c>
       <c r="T39" t="n">
-        <v>5.857037963013294</v>
+        <v>5.857037963013295</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09559909624069585</v>
+        <v>0.09559909624069586</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,10 +34050,10 @@
         <v>36.63566327716668</v>
       </c>
       <c r="J40" t="n">
-        <v>86.129248278877</v>
+        <v>86.12924827887701</v>
       </c>
       <c r="K40" t="n">
-        <v>141.5368127817986</v>
+        <v>141.5368127817987</v>
       </c>
       <c r="L40" t="n">
         <v>181.1183909415912</v>
@@ -34068,19 +34068,19 @@
         <v>172.1920473498753</v>
       </c>
       <c r="P40" t="n">
-        <v>147.3400436032119</v>
+        <v>147.340043603212</v>
       </c>
       <c r="Q40" t="n">
         <v>102.0106089619051</v>
       </c>
       <c r="R40" t="n">
-        <v>54.77629702807324</v>
+        <v>54.77629702807325</v>
       </c>
       <c r="S40" t="n">
         <v>21.23052191726979</v>
       </c>
       <c r="T40" t="n">
-        <v>5.205187950504331</v>
+        <v>5.205187950504332</v>
       </c>
       <c r="U40" t="n">
         <v>0.0664492078787788</v>
@@ -34129,19 +34129,19 @@
         <v>104.7026923226423</v>
       </c>
       <c r="J41" t="n">
-        <v>230.5041211988551</v>
+        <v>230.5041211988552</v>
       </c>
       <c r="K41" t="n">
-        <v>345.465925647787</v>
+        <v>345.4659256477871</v>
       </c>
       <c r="L41" t="n">
-        <v>428.5810289528662</v>
+        <v>428.5810289528663</v>
       </c>
       <c r="M41" t="n">
         <v>476.8789734335818</v>
       </c>
       <c r="N41" t="n">
-        <v>484.5953737853543</v>
+        <v>484.5953737853544</v>
       </c>
       <c r="O41" t="n">
         <v>457.5896699585396</v>
@@ -34156,7 +34156,7 @@
         <v>170.5993255070924</v>
       </c>
       <c r="S41" t="n">
-        <v>61.88736401795504</v>
+        <v>61.88736401795505</v>
       </c>
       <c r="T41" t="n">
         <v>11.88862033959838</v>
@@ -34214,7 +34214,7 @@
         <v>234.6447950862465</v>
       </c>
       <c r="L42" t="n">
-        <v>315.5088839597097</v>
+        <v>315.5088839597098</v>
       </c>
       <c r="M42" t="n">
         <v>368.1839859883331</v>
@@ -34223,25 +34223,25 @@
         <v>377.9287205318014</v>
       </c>
       <c r="O42" t="n">
-        <v>345.730944917935</v>
+        <v>345.7309449179351</v>
       </c>
       <c r="P42" t="n">
-        <v>277.4795634751609</v>
+        <v>277.479563475161</v>
       </c>
       <c r="Q42" t="n">
         <v>185.4877397992807</v>
       </c>
       <c r="R42" t="n">
-        <v>90.22005375888602</v>
+        <v>90.22005375888604</v>
       </c>
       <c r="S42" t="n">
-        <v>26.99081150528976</v>
+        <v>26.99081150528977</v>
       </c>
       <c r="T42" t="n">
-        <v>5.857037963013294</v>
+        <v>5.857037963013295</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09559909624069585</v>
+        <v>0.09559909624069586</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,10 +34287,10 @@
         <v>36.63566327716668</v>
       </c>
       <c r="J43" t="n">
-        <v>86.129248278877</v>
+        <v>86.12924827887701</v>
       </c>
       <c r="K43" t="n">
-        <v>141.5368127817986</v>
+        <v>141.5368127817987</v>
       </c>
       <c r="L43" t="n">
         <v>181.1183909415912</v>
@@ -34305,19 +34305,19 @@
         <v>172.1920473498753</v>
       </c>
       <c r="P43" t="n">
-        <v>147.3400436032119</v>
+        <v>147.340043603212</v>
       </c>
       <c r="Q43" t="n">
         <v>102.0106089619051</v>
       </c>
       <c r="R43" t="n">
-        <v>54.77629702807324</v>
+        <v>54.77629702807325</v>
       </c>
       <c r="S43" t="n">
         <v>21.23052191726979</v>
       </c>
       <c r="T43" t="n">
-        <v>5.205187950504331</v>
+        <v>5.205187950504332</v>
       </c>
       <c r="U43" t="n">
         <v>0.0664492078787788</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.715847022181238</v>
+        <v>2.715847022181239</v>
       </c>
       <c r="H44" t="n">
-        <v>27.81366831591361</v>
+        <v>27.81366831591362</v>
       </c>
       <c r="I44" t="n">
         <v>104.7026923226423</v>
       </c>
       <c r="J44" t="n">
-        <v>230.5041211988551</v>
+        <v>230.5041211988552</v>
       </c>
       <c r="K44" t="n">
-        <v>345.4659256477869</v>
+        <v>345.4659256477871</v>
       </c>
       <c r="L44" t="n">
-        <v>428.5810289528661</v>
+        <v>428.5810289528663</v>
       </c>
       <c r="M44" t="n">
-        <v>476.8789734335817</v>
+        <v>476.8789734335818</v>
       </c>
       <c r="N44" t="n">
-        <v>484.5953737853542</v>
+        <v>484.5953737853544</v>
       </c>
       <c r="O44" t="n">
-        <v>457.5896699585395</v>
+        <v>457.5896699585396</v>
       </c>
       <c r="P44" t="n">
-        <v>390.5421965984401</v>
+        <v>390.5421965984402</v>
       </c>
       <c r="Q44" t="n">
-        <v>293.2809251165744</v>
+        <v>293.2809251165745</v>
       </c>
       <c r="R44" t="n">
         <v>170.5993255070924</v>
       </c>
       <c r="S44" t="n">
-        <v>61.88736401795503</v>
+        <v>61.88736401795505</v>
       </c>
       <c r="T44" t="n">
         <v>11.88862033959838</v>
       </c>
       <c r="U44" t="n">
-        <v>0.217267761774499</v>
+        <v>0.2172677617744991</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>1.453106262858576</v>
       </c>
       <c r="H45" t="n">
-        <v>14.03394732813414</v>
+        <v>14.03394732813415</v>
       </c>
       <c r="I45" t="n">
-        <v>50.03019369929747</v>
+        <v>50.03019369929748</v>
       </c>
       <c r="J45" t="n">
         <v>137.2866754747219</v>
@@ -34451,34 +34451,34 @@
         <v>234.6447950862465</v>
       </c>
       <c r="L45" t="n">
-        <v>315.5088839597097</v>
+        <v>315.5088839597098</v>
       </c>
       <c r="M45" t="n">
-        <v>368.183985988333</v>
+        <v>368.1839859883331</v>
       </c>
       <c r="N45" t="n">
-        <v>377.9287205318013</v>
+        <v>377.9287205318014</v>
       </c>
       <c r="O45" t="n">
-        <v>345.7309449179349</v>
+        <v>345.7309449179351</v>
       </c>
       <c r="P45" t="n">
-        <v>277.4795634751609</v>
+        <v>277.479563475161</v>
       </c>
       <c r="Q45" t="n">
         <v>185.4877397992807</v>
       </c>
       <c r="R45" t="n">
-        <v>90.22005375888601</v>
+        <v>90.22005375888604</v>
       </c>
       <c r="S45" t="n">
-        <v>26.99081150528976</v>
+        <v>26.99081150528977</v>
       </c>
       <c r="T45" t="n">
-        <v>5.857037963013293</v>
+        <v>5.857037963013295</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09559909624069582</v>
+        <v>0.09559909624069586</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.218235477777609</v>
+        <v>1.21823547777761</v>
       </c>
       <c r="H46" t="n">
         <v>10.83122088424094</v>
       </c>
       <c r="I46" t="n">
-        <v>36.63566327716667</v>
+        <v>36.63566327716668</v>
       </c>
       <c r="J46" t="n">
-        <v>86.12924827887699</v>
+        <v>86.12924827887701</v>
       </c>
       <c r="K46" t="n">
-        <v>141.5368127817986</v>
+        <v>141.5368127817987</v>
       </c>
       <c r="L46" t="n">
         <v>181.1183909415912</v>
@@ -34542,22 +34542,22 @@
         <v>172.1920473498753</v>
       </c>
       <c r="P46" t="n">
-        <v>147.3400436032119</v>
+        <v>147.340043603212</v>
       </c>
       <c r="Q46" t="n">
         <v>102.0106089619051</v>
       </c>
       <c r="R46" t="n">
-        <v>54.77629702807323</v>
+        <v>54.77629702807325</v>
       </c>
       <c r="S46" t="n">
         <v>21.23052191726979</v>
       </c>
       <c r="T46" t="n">
-        <v>5.20518795050433</v>
+        <v>5.205187950504332</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06644920787877878</v>
+        <v>0.0664492078787788</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>6.876045741711437</v>
@@ -35410,22 +35410,22 @@
         <v>218.5548318442426</v>
       </c>
       <c r="K11" t="n">
-        <v>125.3760746028065</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L11" t="n">
-        <v>610.4758285333294</v>
+        <v>192.814613982879</v>
       </c>
       <c r="M11" t="n">
         <v>246.5327402063091</v>
       </c>
       <c r="N11" t="n">
-        <v>333.2059372119005</v>
+        <v>255.1823101887634</v>
       </c>
       <c r="O11" t="n">
-        <v>608.2916397995982</v>
+        <v>458.032360630538</v>
       </c>
       <c r="P11" t="n">
-        <v>159.3092008431706</v>
+        <v>481.1079090146533</v>
       </c>
       <c r="Q11" t="n">
         <v>283.2902259020296</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10.44904880805521</v>
+        <v>136.540084148464</v>
       </c>
       <c r="K12" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244661</v>
       </c>
       <c r="L12" t="n">
         <v>547.7948494832947</v>
       </c>
       <c r="M12" t="n">
-        <v>578.9313059274334</v>
+        <v>652.8536005494776</v>
       </c>
       <c r="N12" t="n">
         <v>246.5870084484681</v>
       </c>
       <c r="O12" t="n">
-        <v>596.99701975022</v>
+        <v>203.1347004734906</v>
       </c>
       <c r="P12" t="n">
-        <v>461.9679247007679</v>
+        <v>181.2743892666161</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.5059657132592</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.52903822578413</v>
+        <v>73.52903822578411</v>
       </c>
       <c r="K13" t="n">
         <v>200.0262910194957</v>
@@ -35586,7 +35586,7 @@
         <v>225.3775729316853</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.60753577379066</v>
+        <v>96.60753577379063</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.5548318442426</v>
+        <v>49.45821667216885</v>
       </c>
       <c r="K14" t="n">
-        <v>125.3760746028065</v>
+        <v>246.1414901884699</v>
       </c>
       <c r="L14" t="n">
         <v>610.4758285333294</v>
@@ -35656,16 +35656,16 @@
         <v>246.5327402063091</v>
       </c>
       <c r="N14" t="n">
-        <v>255.1823101887634</v>
+        <v>652.8536005494776</v>
       </c>
       <c r="O14" t="n">
-        <v>608.2916397995982</v>
+        <v>227.4914585368528</v>
       </c>
       <c r="P14" t="n">
-        <v>237.3328278663077</v>
+        <v>481.1079090146533</v>
       </c>
       <c r="Q14" t="n">
-        <v>283.2902259020296</v>
+        <v>70.97523524212497</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10.44904880805521</v>
+        <v>136.540084148464</v>
       </c>
       <c r="K15" t="n">
         <v>361.2685931244661</v>
       </c>
       <c r="L15" t="n">
-        <v>515.4658136643282</v>
+        <v>547.7948494832947</v>
       </c>
       <c r="M15" t="n">
-        <v>652.8536005494776</v>
+        <v>226.0499520663147</v>
       </c>
       <c r="N15" t="n">
-        <v>652.8536005494776</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O15" t="n">
-        <v>203.1347004734906</v>
+        <v>349.2448135225015</v>
       </c>
       <c r="P15" t="n">
-        <v>143.5051560608307</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.5059657132592</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>73.52903822578413</v>
+        <v>73.52903822578411</v>
       </c>
       <c r="K16" t="n">
         <v>200.0262910194957</v>
@@ -35823,7 +35823,7 @@
         <v>225.3775729316853</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.60753577379066</v>
+        <v>96.60753577379063</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>49.45821667216885</v>
       </c>
       <c r="K17" t="n">
-        <v>125.3760746028065</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L17" t="n">
-        <v>192.814613982879</v>
+        <v>610.4758285333294</v>
       </c>
       <c r="M17" t="n">
-        <v>652.8536005494776</v>
+        <v>246.5327402063091</v>
       </c>
       <c r="N17" t="n">
-        <v>513.6429065912562</v>
+        <v>255.1823101887634</v>
       </c>
       <c r="O17" t="n">
         <v>608.2916397995982</v>
@@ -35902,10 +35902,10 @@
         <v>159.3092008431706</v>
       </c>
       <c r="Q17" t="n">
-        <v>283.2902259020296</v>
+        <v>185.5348479601327</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>20.73020756594272</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.44904880805521</v>
+        <v>136.540084148464</v>
       </c>
       <c r="K18" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244661</v>
       </c>
       <c r="L18" t="n">
         <v>547.7948494832947</v>
       </c>
       <c r="M18" t="n">
-        <v>356.4497453673039</v>
+        <v>226.0499520663147</v>
       </c>
       <c r="N18" t="n">
-        <v>652.8536005494776</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O18" t="n">
-        <v>203.1347004734906</v>
+        <v>349.2448135225015</v>
       </c>
       <c r="P18" t="n">
         <v>461.9679247007679</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>119.2673209559158</v>
+        <v>132.8928018048628</v>
       </c>
       <c r="L19" t="n">
         <v>208.7084162019073</v>
@@ -36060,7 +36060,7 @@
         <v>144.6186028681054</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.47404655915927</v>
+        <v>15.84856571021075</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>49.45821667216885</v>
       </c>
       <c r="K20" t="n">
-        <v>346.9756377175939</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L20" t="n">
         <v>610.4758285333294</v>
       </c>
       <c r="M20" t="n">
-        <v>652.8536005494776</v>
+        <v>246.5327402063091</v>
       </c>
       <c r="N20" t="n">
         <v>255.1823101887634</v>
       </c>
       <c r="O20" t="n">
-        <v>227.4914585368528</v>
+        <v>608.2916397995982</v>
       </c>
       <c r="P20" t="n">
-        <v>159.3092008431706</v>
+        <v>294.599021127121</v>
       </c>
       <c r="Q20" t="n">
-        <v>283.2902259020296</v>
+        <v>70.97523524212497</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>136.540084148464</v>
+        <v>10.44904880805521</v>
       </c>
       <c r="K21" t="n">
-        <v>361.2685931244661</v>
+        <v>96.80335611188752</v>
       </c>
       <c r="L21" t="n">
         <v>176.9545041798356</v>
@@ -36212,13 +36212,13 @@
         <v>652.8536005494776</v>
       </c>
       <c r="O21" t="n">
-        <v>203.1347004734906</v>
+        <v>596.99701975022</v>
       </c>
       <c r="P21" t="n">
-        <v>145.848142469066</v>
+        <v>352.6193832811732</v>
       </c>
       <c r="Q21" t="n">
-        <v>255.5832534491083</v>
+        <v>45.5059657132592</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>132.8928018048644</v>
+        <v>132.8928018048628</v>
       </c>
       <c r="L22" t="n">
         <v>208.7084162019073</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>218.5548318442426</v>
+        <v>117.4753205424063</v>
       </c>
       <c r="K23" t="n">
-        <v>125.3760746028065</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L23" t="n">
-        <v>596.3431869697314</v>
+        <v>610.4758285333294</v>
       </c>
       <c r="M23" t="n">
-        <v>696.0462736991416</v>
+        <v>246.5327402063091</v>
       </c>
       <c r="N23" t="n">
         <v>255.1823101887634</v>
@@ -36376,7 +36376,7 @@
         <v>481.1079090146533</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.97523524212497</v>
+        <v>283.2902259020296</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>10.44904880805521</v>
       </c>
       <c r="K24" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244661</v>
       </c>
       <c r="L24" t="n">
         <v>547.7948494832947</v>
@@ -36446,13 +36446,13 @@
         <v>226.0499520663147</v>
       </c>
       <c r="N24" t="n">
-        <v>725.9293827920217</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O24" t="n">
-        <v>578.9214801718732</v>
+        <v>596.99701975022</v>
       </c>
       <c r="P24" t="n">
-        <v>143.5051560608307</v>
+        <v>340.3067538134592</v>
       </c>
       <c r="Q24" t="n">
         <v>255.5832534491083</v>
@@ -36510,13 +36510,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.2587384744035646</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>119.2673209559158</v>
+        <v>132.6340633304591</v>
       </c>
       <c r="L25" t="n">
         <v>208.7084162019073</v>
@@ -36525,7 +36525,7 @@
         <v>230.5478255374708</v>
       </c>
       <c r="N25" t="n">
-        <v>244.1809059320909</v>
+        <v>230.5554250831424</v>
       </c>
       <c r="O25" t="n">
         <v>196.777175263915</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>218.5548318442426</v>
+        <v>211.4588214244964</v>
       </c>
       <c r="K26" t="n">
-        <v>253.2100785854429</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L26" t="n">
         <v>610.4758285333294</v>
@@ -36607,16 +36607,16 @@
         <v>692.5292346007475</v>
       </c>
       <c r="O26" t="n">
-        <v>608.2916397995982</v>
+        <v>227.4914585368528</v>
       </c>
       <c r="P26" t="n">
         <v>481.1079090146533</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.97523524212497</v>
+        <v>283.2902259020296</v>
       </c>
       <c r="R26" t="n">
-        <v>20.73020756594272</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>136.540084148464</v>
+        <v>107.586078519016</v>
       </c>
       <c r="K27" t="n">
-        <v>361.2685931244661</v>
+        <v>96.80335611188752</v>
       </c>
       <c r="L27" t="n">
-        <v>547.7948494832947</v>
+        <v>176.9545041798356</v>
       </c>
       <c r="M27" t="n">
-        <v>226.0499520663147</v>
+        <v>691.7550158163147</v>
       </c>
       <c r="N27" t="n">
-        <v>711.1598901374163</v>
+        <v>725.9293827920217</v>
       </c>
       <c r="O27" t="n">
-        <v>203.1347004734906</v>
+        <v>596.99701975022</v>
       </c>
       <c r="P27" t="n">
         <v>143.5051560608307</v>
       </c>
       <c r="Q27" t="n">
-        <v>255.5832534491083</v>
+        <v>45.5059657132592</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>71.75006767148848</v>
+        <v>71.75006767148858</v>
       </c>
       <c r="K28" t="n">
-        <v>198.2473204652</v>
+        <v>198.2473204652001</v>
       </c>
       <c r="L28" t="n">
-        <v>287.6884157111916</v>
+        <v>287.6884157111917</v>
       </c>
       <c r="M28" t="n">
         <v>309.5278250467551</v>
       </c>
       <c r="N28" t="n">
-        <v>309.5354245924267</v>
+        <v>309.5354245924268</v>
       </c>
       <c r="O28" t="n">
         <v>275.7571747731993</v>
       </c>
       <c r="P28" t="n">
-        <v>223.5986023773897</v>
+        <v>223.5986023773898</v>
       </c>
       <c r="Q28" t="n">
-        <v>94.828565219495</v>
+        <v>94.8285652194951</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>49.45821667216885</v>
+        <v>218.5548318442426</v>
       </c>
       <c r="K29" t="n">
-        <v>449.5214871739712</v>
+        <v>449.5214871739713</v>
       </c>
       <c r="L29" t="n">
-        <v>610.4758285333294</v>
+        <v>610.4758285333295</v>
       </c>
       <c r="M29" t="n">
         <v>696.0462736991416</v>
       </c>
       <c r="N29" t="n">
-        <v>692.5292346007475</v>
+        <v>692.5292346007476</v>
       </c>
       <c r="O29" t="n">
         <v>608.2916397995982</v>
       </c>
       <c r="P29" t="n">
-        <v>474.623323164141</v>
+        <v>305.5267079920668</v>
       </c>
       <c r="Q29" t="n">
-        <v>70.97523524212497</v>
+        <v>70.97523524212502</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10.44904880805521</v>
+        <v>136.5400841484641</v>
       </c>
       <c r="K30" t="n">
-        <v>361.2685931244661</v>
+        <v>361.2685931244662</v>
       </c>
       <c r="L30" t="n">
-        <v>193.4113284190985</v>
+        <v>300.042643255576</v>
       </c>
       <c r="M30" t="n">
-        <v>691.7550158163147</v>
+        <v>226.0499520663148</v>
       </c>
       <c r="N30" t="n">
-        <v>725.9293827920217</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O30" t="n">
-        <v>203.1347004734906</v>
+        <v>596.9970197502201</v>
       </c>
       <c r="P30" t="n">
-        <v>143.5051560608307</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q30" t="n">
         <v>255.5832534491083</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.75006767148848</v>
+        <v>71.75006767148857</v>
       </c>
       <c r="K31" t="n">
-        <v>198.2473204652</v>
+        <v>198.2473204652001</v>
       </c>
       <c r="L31" t="n">
-        <v>287.6884157111916</v>
+        <v>287.6884157111917</v>
       </c>
       <c r="M31" t="n">
         <v>309.5278250467551</v>
       </c>
       <c r="N31" t="n">
-        <v>309.5354245924267</v>
+        <v>309.5354245924268</v>
       </c>
       <c r="O31" t="n">
         <v>275.7571747731993</v>
       </c>
       <c r="P31" t="n">
-        <v>223.5986023773897</v>
+        <v>223.5986023773898</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.828565219495</v>
+        <v>94.82856521949509</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>218.5548318442426</v>
       </c>
       <c r="K32" t="n">
-        <v>449.5214871739712</v>
+        <v>449.5214871739713</v>
       </c>
       <c r="L32" t="n">
-        <v>386.9380570079226</v>
+        <v>610.4758285333295</v>
       </c>
       <c r="M32" t="n">
         <v>696.0462736991416</v>
       </c>
       <c r="N32" t="n">
-        <v>692.5292346007475</v>
+        <v>692.5292346007476</v>
       </c>
       <c r="O32" t="n">
         <v>608.2916397995982</v>
       </c>
       <c r="P32" t="n">
-        <v>481.1079090146533</v>
+        <v>159.3092008431707</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.97523524212497</v>
+        <v>189.9663794541433</v>
       </c>
       <c r="R32" t="n">
-        <v>20.73020756594272</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>136.540084148464</v>
+        <v>136.5400841484641</v>
       </c>
       <c r="K33" t="n">
-        <v>251.6343820233206</v>
+        <v>337.1144370901444</v>
       </c>
       <c r="L33" t="n">
         <v>176.9545041798356</v>
@@ -37157,13 +37157,13 @@
         <v>691.7550158163147</v>
       </c>
       <c r="N33" t="n">
-        <v>725.9293827920217</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O33" t="n">
-        <v>203.1347004734906</v>
+        <v>596.9970197502201</v>
       </c>
       <c r="P33" t="n">
-        <v>143.5051560608307</v>
+        <v>143.5051560608308</v>
       </c>
       <c r="Q33" t="n">
         <v>255.5832534491083</v>
@@ -37242,7 +37242,7 @@
         <v>277.5361453274949</v>
       </c>
       <c r="P34" t="n">
-        <v>225.3775729316853</v>
+        <v>225.3775729316854</v>
       </c>
       <c r="Q34" t="n">
         <v>96.60753577379067</v>
@@ -37306,16 +37306,16 @@
         <v>218.5548318442426</v>
       </c>
       <c r="K35" t="n">
-        <v>449.5214871739712</v>
+        <v>449.5214871739713</v>
       </c>
       <c r="L35" t="n">
-        <v>195.353273913961</v>
+        <v>610.4758285333295</v>
       </c>
       <c r="M35" t="n">
-        <v>696.0462736991416</v>
+        <v>280.9237190797725</v>
       </c>
       <c r="N35" t="n">
-        <v>692.5292346007475</v>
+        <v>692.5292346007476</v>
       </c>
       <c r="O35" t="n">
         <v>608.2916397995982</v>
@@ -37324,7 +37324,7 @@
         <v>481.1079090146533</v>
       </c>
       <c r="Q35" t="n">
-        <v>283.2902259020296</v>
+        <v>283.2902259020297</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>136.540084148464</v>
+        <v>136.5400841484641</v>
       </c>
       <c r="K36" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244662</v>
       </c>
       <c r="L36" t="n">
-        <v>176.9545041798356</v>
+        <v>547.7948494832948</v>
       </c>
       <c r="M36" t="n">
-        <v>226.0499520663147</v>
+        <v>226.0499520663148</v>
       </c>
       <c r="N36" t="n">
-        <v>725.9293827920217</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O36" t="n">
-        <v>596.99701975022</v>
+        <v>349.244813522502</v>
       </c>
       <c r="P36" t="n">
-        <v>370.1789264455342</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q36" t="n">
         <v>255.5832534491083</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.52903822578413</v>
+        <v>73.52903822578415</v>
       </c>
       <c r="K37" t="n">
         <v>200.0262910194957</v>
       </c>
       <c r="L37" t="n">
-        <v>289.4673862654872</v>
+        <v>289.4673862654873</v>
       </c>
       <c r="M37" t="n">
         <v>311.3067956010507</v>
@@ -37479,10 +37479,10 @@
         <v>277.5361453274949</v>
       </c>
       <c r="P37" t="n">
-        <v>225.3775729316853</v>
+        <v>225.3775729316854</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.60753577379066</v>
+        <v>96.60753577379067</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>218.5548318442426</v>
       </c>
       <c r="K38" t="n">
-        <v>449.5214871739712</v>
+        <v>449.5214871739713</v>
       </c>
       <c r="L38" t="n">
-        <v>195.3532739139601</v>
+        <v>610.4758285333295</v>
       </c>
       <c r="M38" t="n">
-        <v>696.0462736991416</v>
+        <v>280.9237190797734</v>
       </c>
       <c r="N38" t="n">
-        <v>692.5292346007475</v>
+        <v>692.5292346007476</v>
       </c>
       <c r="O38" t="n">
         <v>608.2916397995982</v>
@@ -37561,7 +37561,7 @@
         <v>481.1079090146533</v>
       </c>
       <c r="Q38" t="n">
-        <v>283.2902259020296</v>
+        <v>283.2902259020297</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>136.540084148464</v>
+        <v>136.5400841484641</v>
       </c>
       <c r="K39" t="n">
-        <v>361.2685931244661</v>
+        <v>361.2685931244662</v>
       </c>
       <c r="L39" t="n">
-        <v>547.7948494832947</v>
+        <v>547.7948494832948</v>
       </c>
       <c r="M39" t="n">
-        <v>226.0499520663147</v>
+        <v>226.0499520663148</v>
       </c>
       <c r="N39" t="n">
         <v>246.5870084484681</v>
       </c>
       <c r="O39" t="n">
-        <v>596.99701975022</v>
+        <v>349.244813522502</v>
       </c>
       <c r="P39" t="n">
-        <v>214.21571847305</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q39" t="n">
         <v>255.5832534491083</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.52903822578418</v>
+        <v>73.52903822578413</v>
       </c>
       <c r="K40" t="n">
         <v>200.0262910194957</v>
@@ -37707,7 +37707,7 @@
         <v>289.4673862654873</v>
       </c>
       <c r="M40" t="n">
-        <v>311.3067956010498</v>
+        <v>311.3067956010507</v>
       </c>
       <c r="N40" t="n">
         <v>311.3143951467223</v>
@@ -37716,10 +37716,10 @@
         <v>277.5361453274949</v>
       </c>
       <c r="P40" t="n">
-        <v>225.3775729316854</v>
+        <v>225.3775729316851</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.6075357737907</v>
+        <v>96.60753577379066</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>218.5548318442426</v>
       </c>
       <c r="K41" t="n">
-        <v>394.4689062514045</v>
+        <v>125.3760746028065</v>
       </c>
       <c r="L41" t="n">
-        <v>610.4758285333294</v>
+        <v>610.4758285333295</v>
       </c>
       <c r="M41" t="n">
         <v>696.0462736991416</v>
       </c>
       <c r="N41" t="n">
-        <v>692.5292346007475</v>
+        <v>692.5292346007476</v>
       </c>
       <c r="O41" t="n">
-        <v>227.4914585368528</v>
+        <v>608.2916397995982</v>
       </c>
       <c r="P41" t="n">
-        <v>481.1079090146533</v>
+        <v>369.4005594005068</v>
       </c>
       <c r="Q41" t="n">
-        <v>283.2902259020296</v>
+        <v>283.2902259020297</v>
       </c>
       <c r="R41" t="n">
-        <v>20.73020756594272</v>
+        <v>20.73020756594275</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>10.44904880805521</v>
+        <v>136.5400841484641</v>
       </c>
       <c r="K42" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244662</v>
       </c>
       <c r="L42" t="n">
-        <v>421.3338290008597</v>
+        <v>547.7948494832948</v>
       </c>
       <c r="M42" t="n">
-        <v>226.0499520663147</v>
+        <v>372.160065115326</v>
       </c>
       <c r="N42" t="n">
-        <v>725.9293827920217</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O42" t="n">
-        <v>596.99701975022</v>
+        <v>203.1347004734906</v>
       </c>
       <c r="P42" t="n">
         <v>461.9679247007679</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.5059657132592</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.52903822578278</v>
+        <v>73.52903822578499</v>
       </c>
       <c r="K43" t="n">
         <v>200.0262910194957</v>
       </c>
       <c r="L43" t="n">
-        <v>289.4673862654873</v>
+        <v>289.4673862654872</v>
       </c>
       <c r="M43" t="n">
-        <v>311.3067956010508</v>
+        <v>311.3067956010507</v>
       </c>
       <c r="N43" t="n">
-        <v>311.3143951467224</v>
+        <v>311.3143951467223</v>
       </c>
       <c r="O43" t="n">
-        <v>277.536145327495</v>
+        <v>277.5361453274949</v>
       </c>
       <c r="P43" t="n">
-        <v>225.3775729316854</v>
+        <v>225.3775729316853</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.60753577379072</v>
+        <v>96.60753577379064</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>218.5548318442426</v>
+        <v>49.45821667216887</v>
       </c>
       <c r="K44" t="n">
-        <v>449.5214871739711</v>
+        <v>449.5214871739713</v>
       </c>
       <c r="L44" t="n">
-        <v>610.4758285333294</v>
+        <v>610.4758285333295</v>
       </c>
       <c r="M44" t="n">
-        <v>260.1935115138297</v>
+        <v>662.3353249117516</v>
       </c>
       <c r="N44" t="n">
-        <v>692.5292346007475</v>
+        <v>692.5292346007476</v>
       </c>
       <c r="O44" t="n">
-        <v>608.2916397995981</v>
+        <v>608.2916397995982</v>
       </c>
       <c r="P44" t="n">
-        <v>481.1079090146532</v>
+        <v>481.1079090146533</v>
       </c>
       <c r="Q44" t="n">
-        <v>283.2902259020296</v>
+        <v>70.97523524212502</v>
       </c>
       <c r="R44" t="n">
-        <v>20.73020756594269</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>136.540084148464</v>
+        <v>136.5400841484641</v>
       </c>
       <c r="K45" t="n">
-        <v>96.80335611188747</v>
+        <v>360.1364110634148</v>
       </c>
       <c r="L45" t="n">
-        <v>547.7948494832947</v>
+        <v>547.7948494832948</v>
       </c>
       <c r="M45" t="n">
-        <v>367.3602155202007</v>
+        <v>691.7550158163147</v>
       </c>
       <c r="N45" t="n">
-        <v>725.9293827920216</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O45" t="n">
-        <v>203.1347004734905</v>
+        <v>203.1347004734906</v>
       </c>
       <c r="P45" t="n">
-        <v>461.9679247007678</v>
+        <v>143.5051560608308</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.50596571325917</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.52903822578418</v>
+        <v>73.52903822578412</v>
       </c>
       <c r="K46" t="n">
         <v>200.0262910194957</v>
       </c>
       <c r="L46" t="n">
-        <v>289.4673862654873</v>
+        <v>289.4673862654872</v>
       </c>
       <c r="M46" t="n">
         <v>311.3067956010507</v>
@@ -38190,10 +38190,10 @@
         <v>277.5361453274949</v>
       </c>
       <c r="P46" t="n">
-        <v>225.3775729316854</v>
+        <v>225.3775729316853</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.60753577379069</v>
+        <v>96.60753577379064</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
